--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Fiets.xlsx
@@ -391,13 +391,13 @@
         <v>1908117.061403602</v>
       </c>
       <c r="C2">
-        <v>1740861.137687189</v>
+        <v>1740861.137687188</v>
       </c>
       <c r="D2">
         <v>1354213.42685169</v>
       </c>
       <c r="E2">
-        <v>979029.1659239908</v>
+        <v>979029.165923991</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,13 +405,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>744622.393156431</v>
+        <v>744622.3931564307</v>
       </c>
       <c r="C3">
-        <v>679116.5119968959</v>
+        <v>679116.5119968957</v>
       </c>
       <c r="D3">
-        <v>524115.9096431877</v>
+        <v>524115.9096431879</v>
       </c>
       <c r="E3">
         <v>383510.7322380097</v>
@@ -425,7 +425,7 @@
         <v>134960.8139587318</v>
       </c>
       <c r="C4">
-        <v>148623.5858417841</v>
+        <v>148623.5858417842</v>
       </c>
       <c r="D4">
         <v>139376.1998527786</v>
@@ -473,13 +473,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>744622.393156431</v>
+        <v>744622.3931564307</v>
       </c>
       <c r="C7">
-        <v>679116.5119968959</v>
+        <v>679116.5119968957</v>
       </c>
       <c r="D7">
-        <v>524115.9096431877</v>
+        <v>524115.9096431879</v>
       </c>
       <c r="E7">
         <v>383510.7322380097</v>
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>624168.7707340672</v>
+        <v>624168.7707340668</v>
       </c>
       <c r="C8">
-        <v>645160.6863970511</v>
+        <v>645160.6863970509</v>
       </c>
       <c r="D8">
-        <v>553782.8479248775</v>
+        <v>553782.8479248778</v>
       </c>
       <c r="E8">
         <v>448789.1547466071</v>
@@ -507,13 +507,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>624168.7707340672</v>
+        <v>624168.7707340668</v>
       </c>
       <c r="C9">
-        <v>645160.6863970511</v>
+        <v>645160.6863970509</v>
       </c>
       <c r="D9">
-        <v>553782.8479248775</v>
+        <v>553782.8479248778</v>
       </c>
       <c r="E9">
         <v>448789.1547466071</v>
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>569417.1241784473</v>
+        <v>569417.1241784469</v>
       </c>
       <c r="C10">
-        <v>611204.8607972063</v>
+        <v>611204.8607972061</v>
       </c>
       <c r="D10">
-        <v>563671.8273521075</v>
+        <v>563671.8273521077</v>
       </c>
       <c r="E10">
         <v>505907.7744416299</v>
@@ -541,13 +541,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>624168.7707340672</v>
+        <v>624168.7707340668</v>
       </c>
       <c r="C11">
-        <v>645160.6863970511</v>
+        <v>645160.6863970509</v>
       </c>
       <c r="D11">
-        <v>553782.8479248775</v>
+        <v>553782.8479248778</v>
       </c>
       <c r="E11">
         <v>448789.1547466071</v>
@@ -561,7 +561,7 @@
         <v>134960.8139587318</v>
       </c>
       <c r="C12">
-        <v>148623.5858417841</v>
+        <v>148623.5858417842</v>
       </c>
       <c r="D12">
         <v>139376.1998527786</v>
@@ -575,13 +575,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>569417.1241784473</v>
+        <v>569417.1241784469</v>
       </c>
       <c r="C13">
-        <v>611204.8607972063</v>
+        <v>611204.8607972061</v>
       </c>
       <c r="D13">
-        <v>563671.8273521075</v>
+        <v>563671.8273521077</v>
       </c>
       <c r="E13">
         <v>505907.7744416299</v>
@@ -595,7 +595,7 @@
         <v>134960.8139587318</v>
       </c>
       <c r="C14">
-        <v>148623.5858417841</v>
+        <v>148623.5858417842</v>
       </c>
       <c r="D14">
         <v>139376.1998527786</v>
@@ -609,13 +609,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>624168.7707340672</v>
+        <v>624168.7707340668</v>
       </c>
       <c r="C15">
-        <v>645160.6863970511</v>
+        <v>645160.6863970509</v>
       </c>
       <c r="D15">
-        <v>553782.8479248775</v>
+        <v>553782.8479248778</v>
       </c>
       <c r="E15">
         <v>448789.1547466071</v>
@@ -632,7 +632,7 @@
         <v>1669805.581046895</v>
       </c>
       <c r="D16">
-        <v>1426575.976378116</v>
+        <v>1426575.976378117</v>
       </c>
       <c r="E16">
         <v>1159376.643857358</v>
@@ -646,7 +646,7 @@
         <v>134960.8139587318</v>
       </c>
       <c r="C17">
-        <v>148623.5858417841</v>
+        <v>148623.5858417842</v>
       </c>
       <c r="D17">
         <v>139376.1998527786</v>
@@ -660,13 +660,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>624168.7707340672</v>
+        <v>624168.7707340668</v>
       </c>
       <c r="C18">
-        <v>645160.6863970511</v>
+        <v>645160.6863970509</v>
       </c>
       <c r="D18">
-        <v>553782.8479248775</v>
+        <v>553782.8479248778</v>
       </c>
       <c r="E18">
         <v>448789.1547466071</v>
@@ -683,7 +683,7 @@
         <v>1669805.581046895</v>
       </c>
       <c r="D19">
-        <v>1426575.976378116</v>
+        <v>1426575.976378117</v>
       </c>
       <c r="E19">
         <v>1159376.643857358</v>
@@ -700,7 +700,7 @@
         <v>1669805.581046895</v>
       </c>
       <c r="D20">
-        <v>1426575.976378116</v>
+        <v>1426575.976378117</v>
       </c>
       <c r="E20">
         <v>1159376.643857358</v>
@@ -717,7 +717,7 @@
         <v>1669805.581046895</v>
       </c>
       <c r="D21">
-        <v>1426575.976378116</v>
+        <v>1426575.976378117</v>
       </c>
       <c r="E21">
         <v>1159376.643857358</v>
@@ -728,16 +728,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>397707.5443787702</v>
+        <v>397707.5443787703</v>
       </c>
       <c r="C22">
-        <v>365333.1206525487</v>
+        <v>365333.1206525489</v>
       </c>
       <c r="D22">
         <v>275973.9204113492</v>
       </c>
       <c r="E22">
-        <v>206660.8942878825</v>
+        <v>206660.8942878826</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -751,7 +751,7 @@
         <v>1669805.581046895</v>
       </c>
       <c r="D23">
-        <v>1426575.976378116</v>
+        <v>1426575.976378117</v>
       </c>
       <c r="E23">
         <v>1159376.643857358</v>
@@ -762,13 +762,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>982548.9932397922</v>
+        <v>982548.9932397925</v>
       </c>
       <c r="C24">
-        <v>899905.8233864531</v>
+        <v>899905.8233864532</v>
       </c>
       <c r="D24">
-        <v>702008.5784945065</v>
+        <v>702008.5784945068</v>
       </c>
       <c r="E24">
         <v>505460.0020175274</v>
@@ -782,10 +782,10 @@
         <v>1156759.807644011</v>
       </c>
       <c r="C25">
-        <v>957042.7010617835</v>
+        <v>957042.7010617836</v>
       </c>
       <c r="D25">
-        <v>664062.1688461549</v>
+        <v>664062.1688461551</v>
       </c>
       <c r="E25">
         <v>388406.1068134684</v>
@@ -799,10 +799,10 @@
         <v>1156759.807644011</v>
       </c>
       <c r="C26">
-        <v>957042.7010617835</v>
+        <v>957042.7010617836</v>
       </c>
       <c r="D26">
-        <v>664062.1688461549</v>
+        <v>664062.1688461551</v>
       </c>
       <c r="E26">
         <v>388406.1068134684</v>
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>757219.3092566648</v>
+        <v>757219.3092566647</v>
       </c>
       <c r="C27">
         <v>750838.4508456142</v>
@@ -822,7 +822,7 @@
         <v>624972.8181259122</v>
       </c>
       <c r="E27">
-        <v>480867.984877123</v>
+        <v>480867.9848771229</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -830,7 +830,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>919480.5898116644</v>
+        <v>919480.5898116643</v>
       </c>
       <c r="C28">
         <v>807505.5037396229</v>
@@ -839,7 +839,7 @@
         <v>588209.7111773292</v>
       </c>
       <c r="E28">
-        <v>372918.0290883811</v>
+        <v>372918.029088381</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -847,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>919480.5898116644</v>
+        <v>919480.5898116643</v>
       </c>
       <c r="C29">
         <v>807505.5037396229</v>
@@ -856,7 +856,7 @@
         <v>588209.7111773292</v>
       </c>
       <c r="E29">
-        <v>372918.0290883811</v>
+        <v>372918.029088381</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -864,16 +864,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>3943722.298201293</v>
+        <v>3943722.298201291</v>
       </c>
       <c r="C30">
-        <v>4054037.525134085</v>
+        <v>4054037.525134082</v>
       </c>
       <c r="D30">
-        <v>3825627.714988013</v>
+        <v>3825627.714988014</v>
       </c>
       <c r="E30">
-        <v>4163889.315748177</v>
+        <v>4163889.315748178</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -881,16 +881,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3354430.460539031</v>
+        <v>3354430.460539029</v>
       </c>
       <c r="C31">
-        <v>3697638.621825594</v>
+        <v>3697638.621825592</v>
       </c>
       <c r="D31">
-        <v>3954581.458189856</v>
+        <v>3954581.458189857</v>
       </c>
       <c r="E31">
-        <v>4918746.443164513</v>
+        <v>4918746.443164514</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -898,10 +898,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2583818.057442226</v>
+        <v>2583818.057442225</v>
       </c>
       <c r="C32">
-        <v>3207590.129776419</v>
+        <v>3207590.129776417</v>
       </c>
       <c r="D32">
         <v>4083535.2013917</v>
@@ -915,16 +915,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3649076.379370162</v>
+        <v>3649076.37937016</v>
       </c>
       <c r="C33">
-        <v>3853563.142023059</v>
+        <v>3853563.142023056</v>
       </c>
       <c r="D33">
-        <v>3868612.296055294</v>
+        <v>3868612.296055295</v>
       </c>
       <c r="E33">
-        <v>4553492.994414673</v>
+        <v>4553492.994414674</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -932,10 +932,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2463069.152934983</v>
+        <v>2463069.152934984</v>
       </c>
       <c r="C34">
-        <v>3090061.708850784</v>
+        <v>3090061.708850783</v>
       </c>
       <c r="D34">
         <v>3625699.430636531</v>
@@ -966,16 +966,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2410165.528929617</v>
+        <v>2410165.528929616</v>
       </c>
       <c r="C36">
-        <v>2695434.614012826</v>
+        <v>2695434.614012825</v>
       </c>
       <c r="D36">
         <v>2746120.581682421</v>
       </c>
       <c r="E36">
-        <v>3268918.108813091</v>
+        <v>3268918.108813094</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -986,13 +986,13 @@
         <v>2652669.950530438</v>
       </c>
       <c r="C37">
-        <v>2603772.408194989</v>
+        <v>2603772.408194987</v>
       </c>
       <c r="D37">
-        <v>2394545.355101488</v>
+        <v>2394545.355101487</v>
       </c>
       <c r="E37">
-        <v>2606166.73938813</v>
+        <v>2606166.739388132</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1003,13 +1003,13 @@
         <v>1822268.922538301</v>
       </c>
       <c r="C38">
-        <v>2083017.926555991</v>
+        <v>2083017.92655599</v>
       </c>
       <c r="D38">
         <v>2570291.80318233</v>
       </c>
       <c r="E38">
-        <v>3694178.096608417</v>
+        <v>3694178.09660842</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1017,10 +1017,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>4058466.217904234</v>
+        <v>4058466.217904235</v>
       </c>
       <c r="C39">
-        <v>3724627.952632642</v>
+        <v>3724627.95263264</v>
       </c>
       <c r="D39">
         <v>3252465.665718064</v>
@@ -1043,7 +1043,7 @@
         <v>15774712.14041888</v>
       </c>
       <c r="E40">
-        <v>17336867.92884739</v>
+        <v>17336867.9288474</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,13 +1071,13 @@
         <v>1635128.498156194</v>
       </c>
       <c r="C42">
-        <v>1995979.049646874</v>
+        <v>1995979.049646873</v>
       </c>
       <c r="D42">
-        <v>2340750.160104116</v>
+        <v>2340750.160104117</v>
       </c>
       <c r="E42">
-        <v>3246553.372743467</v>
+        <v>3246553.372743468</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1091,10 +1091,10 @@
         <v>2075027.724880413</v>
       </c>
       <c r="D43">
-        <v>2283190.729937621</v>
+        <v>2283190.729937623</v>
       </c>
       <c r="E43">
-        <v>3024186.703377476</v>
+        <v>3024186.703377477</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1102,13 +1102,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>6144555.70990906</v>
+        <v>6144555.709909062</v>
       </c>
       <c r="C44">
-        <v>5390539.090219</v>
+        <v>5390539.090219001</v>
       </c>
       <c r="D44">
-        <v>4603078.286505482</v>
+        <v>4603078.286505488</v>
       </c>
       <c r="E44">
         <v>4434836.187526705</v>
@@ -1119,7 +1119,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>927112.8044434803</v>
+        <v>927112.8044434806</v>
       </c>
       <c r="C45">
         <v>995491.4942710062</v>
@@ -1139,13 +1139,13 @@
         <v>2052935.874758339</v>
       </c>
       <c r="C46">
-        <v>2309432.918572946</v>
+        <v>2309432.918572945</v>
       </c>
       <c r="D46">
         <v>2548323.497172225</v>
       </c>
       <c r="E46">
-        <v>3314639.251066456</v>
+        <v>3314639.251066459</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1162,7 +1162,7 @@
         <v>2514305.207904035</v>
       </c>
       <c r="E47">
-        <v>2456764.541406112</v>
+        <v>2456764.541406114</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1176,7 +1176,7 @@
         <v>1137704.56488115</v>
       </c>
       <c r="D48">
-        <v>966440.2763970336</v>
+        <v>966440.2763970338</v>
       </c>
       <c r="E48">
         <v>959021.0290626115</v>
@@ -1190,13 +1190,13 @@
         <v>11019953.25292205</v>
       </c>
       <c r="C49">
-        <v>12622929.91156253</v>
+        <v>12622929.91156254</v>
       </c>
       <c r="D49">
         <v>10937391.19193533</v>
       </c>
       <c r="E49">
-        <v>8511855.907484513</v>
+        <v>8511855.907484517</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1213,7 +1213,7 @@
         <v>4005172.438826493</v>
       </c>
       <c r="E50">
-        <v>3782416.144875711</v>
+        <v>3782416.144875713</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1221,13 +1221,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1493525.040337317</v>
+        <v>1493525.040337316</v>
       </c>
       <c r="C51">
         <v>1524182.720174571</v>
       </c>
       <c r="D51">
-        <v>1239079.427759176</v>
+        <v>1239079.427759175</v>
       </c>
       <c r="E51">
         <v>920112.3964054892</v>
@@ -1238,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1287147.152727931</v>
+        <v>1287147.15272793</v>
       </c>
       <c r="C52">
         <v>1396439.387188846</v>
@@ -1247,7 +1247,7 @@
         <v>1218025.38581653</v>
       </c>
       <c r="E52">
-        <v>974739.6157876778</v>
+        <v>974739.6157876777</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1261,7 +1261,7 @@
         <v>1592200.396719732</v>
       </c>
       <c r="D53">
-        <v>1499054.379235254</v>
+        <v>1499054.379235255</v>
       </c>
       <c r="E53">
         <v>1292530.349168072</v>
@@ -1272,13 +1272,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1169753.87774671</v>
+        <v>1169753.877746709</v>
       </c>
       <c r="C54">
         <v>1325376.278412671</v>
       </c>
       <c r="D54">
-        <v>1315330.469467433</v>
+        <v>1315330.469467432</v>
       </c>
       <c r="E54">
         <v>1199162.877282564</v>
@@ -1306,16 +1306,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>5246481.479775257</v>
+        <v>5246481.479775258</v>
       </c>
       <c r="C56">
-        <v>7220239.876396615</v>
+        <v>7220239.876396612</v>
       </c>
       <c r="D56">
-        <v>7011224.856677443</v>
+        <v>7011224.856677444</v>
       </c>
       <c r="E56">
-        <v>6090318.233512974</v>
+        <v>6090318.233512973</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1346,7 +1346,7 @@
         <v>902914.3610089654</v>
       </c>
       <c r="D58">
-        <v>779160.5931495099</v>
+        <v>779160.5931495103</v>
       </c>
       <c r="E58">
         <v>614605.6733219733</v>
@@ -1363,7 +1363,7 @@
         <v>902914.3610089654</v>
       </c>
       <c r="D59">
-        <v>779160.5931495099</v>
+        <v>779160.5931495103</v>
       </c>
       <c r="E59">
         <v>614605.6733219733</v>
@@ -1380,10 +1380,10 @@
         <v>1518741.502109935</v>
       </c>
       <c r="D60">
-        <v>1223484.801805052</v>
+        <v>1223484.801805053</v>
       </c>
       <c r="E60">
-        <v>909369.3228569466</v>
+        <v>909369.3228569465</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1391,13 +1391,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1824791.523342591</v>
+        <v>1824791.523342592</v>
       </c>
       <c r="C61">
         <v>1590634.59096721</v>
       </c>
       <c r="D61">
-        <v>1167871.856268459</v>
+        <v>1167871.85626846</v>
       </c>
       <c r="E61">
         <v>758898.1399381713</v>
@@ -1408,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>183546.1489331129</v>
+        <v>183546.1489331128</v>
       </c>
       <c r="C62">
         <v>176897.6043050359</v>
@@ -1428,7 +1428,7 @@
         <v>226373.5836841725</v>
       </c>
       <c r="C63">
-        <v>195197.3564745224</v>
+        <v>195197.3564745223</v>
       </c>
       <c r="D63">
         <v>139403.3989012316</v>
@@ -1451,7 +1451,7 @@
         <v>102769.6236452333</v>
       </c>
       <c r="E64">
-        <v>67130.27323578748</v>
+        <v>67130.27323578749</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1468,7 +1468,7 @@
         <v>104177.4267088666</v>
       </c>
       <c r="E65">
-        <v>74196.617786923</v>
+        <v>74196.61778692302</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1476,16 +1476,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>941972.6635469188</v>
+        <v>941972.6635469189</v>
       </c>
       <c r="C66">
         <v>995963.3612490825</v>
       </c>
       <c r="D66">
-        <v>959654.859193038</v>
+        <v>959654.8591930382</v>
       </c>
       <c r="E66">
-        <v>996131.1400643591</v>
+        <v>996131.1400643592</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1493,7 +1493,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>603828.6304787941</v>
+        <v>603828.6304787942</v>
       </c>
       <c r="C67">
         <v>779971.3070022934</v>
@@ -1510,16 +1510,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>760824.0744032805</v>
+        <v>760824.0744032806</v>
       </c>
       <c r="C68">
         <v>863968.2169871558</v>
       </c>
       <c r="D68">
-        <v>993928.2470213608</v>
+        <v>993928.2470213609</v>
       </c>
       <c r="E68">
-        <v>1242234.127609671</v>
+        <v>1242234.127609672</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1527,13 +1527,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>869513.2278894635</v>
+        <v>869513.2278894637</v>
       </c>
       <c r="C69">
         <v>923966.0098334861</v>
       </c>
       <c r="D69">
-        <v>971079.321802479</v>
+        <v>971079.3218024791</v>
       </c>
       <c r="E69">
         <v>1125042.22877857</v>
@@ -1544,7 +1544,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>688364.6387458253</v>
+        <v>688364.6387458254</v>
       </c>
       <c r="C70">
         <v>851968.6584178898</v>
@@ -1561,16 +1561,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>3684072.79249734</v>
+        <v>3684072.792497342</v>
       </c>
       <c r="C71">
-        <v>3286942.382302403</v>
+        <v>3286942.382302402</v>
       </c>
       <c r="D71">
         <v>2937289.140097538</v>
       </c>
       <c r="E71">
-        <v>2869361.103432024</v>
+        <v>2869361.103432023</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1584,10 +1584,10 @@
         <v>1031962.036956881</v>
       </c>
       <c r="D72">
-        <v>936805.9339741562</v>
+        <v>936805.9339741563</v>
       </c>
       <c r="E72">
-        <v>902377.6209994782</v>
+        <v>902377.6209994783</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1601,10 +1601,10 @@
         <v>1019962.478387614</v>
       </c>
       <c r="D73">
-        <v>925381.4713647153</v>
+        <v>925381.4713647154</v>
       </c>
       <c r="E73">
-        <v>878939.2412332579</v>
+        <v>878939.241233258</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1618,10 +1618,10 @@
         <v>1091959.829803211</v>
       </c>
       <c r="D74">
-        <v>913957.0087552743</v>
+        <v>913957.0087552745</v>
       </c>
       <c r="E74">
-        <v>785185.7221683771</v>
+        <v>785185.7221683773</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1635,7 +1635,7 @@
         <v>1112717.859372469</v>
       </c>
       <c r="D75">
-        <v>849048.264974568</v>
+        <v>849048.2649745685</v>
       </c>
       <c r="E75">
         <v>610080.6663830811</v>
@@ -1646,16 +1646,16 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>941972.6635469188</v>
+        <v>941972.6635469189</v>
       </c>
       <c r="C76">
         <v>995963.3612490825</v>
       </c>
       <c r="D76">
-        <v>959654.859193038</v>
+        <v>959654.8591930382</v>
       </c>
       <c r="E76">
-        <v>996131.1400643591</v>
+        <v>996131.1400643592</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1663,7 +1663,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2281624.530068654</v>
+        <v>2281624.530068652</v>
       </c>
       <c r="C77">
         <v>2205732.717490574</v>
@@ -1697,7 +1697,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2822628.284621015</v>
+        <v>2822628.284621013</v>
       </c>
       <c r="C79">
         <v>2334791.546705448</v>
@@ -1714,7 +1714,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2657974.968018122</v>
+        <v>2657974.968018121</v>
       </c>
       <c r="C80">
         <v>2276128.442516869</v>
@@ -1731,16 +1731,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>683760.5274005887</v>
+        <v>683760.5274005886</v>
       </c>
       <c r="C81">
-        <v>651482.6940025779</v>
+        <v>651482.694002578</v>
       </c>
       <c r="D81">
         <v>653970.5788521477</v>
       </c>
       <c r="E81">
-        <v>747039.8580057403</v>
+        <v>747039.8580057406</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1748,16 +1748,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>764202.9423888933</v>
+        <v>764202.9423888932</v>
       </c>
       <c r="C82">
-        <v>730450.2932756176</v>
+        <v>730450.2932756178</v>
       </c>
       <c r="D82">
         <v>634736.1500623786</v>
       </c>
       <c r="E82">
-        <v>597631.8864045923</v>
+        <v>597631.8864045925</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,10 +1785,10 @@
         <v>2735476.696410792</v>
       </c>
       <c r="C84">
-        <v>2266965.521292528</v>
+        <v>2266965.521292529</v>
       </c>
       <c r="D84">
-        <v>1810299.227928843</v>
+        <v>1810299.227928844</v>
       </c>
       <c r="E84">
         <v>1514890.618582703</v>
@@ -1816,7 +1816,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1951664.216477276</v>
+        <v>1951664.216477277</v>
       </c>
       <c r="C86">
         <v>1693094.542852069</v>
@@ -1836,7 +1836,7 @@
         <v>589965.0304198655</v>
       </c>
       <c r="C87">
-        <v>574554.3100231872</v>
+        <v>574554.3100231875</v>
       </c>
       <c r="D87">
         <v>543173.9702355084</v>
@@ -1853,7 +1853,7 @@
         <v>549277.7869426335</v>
       </c>
       <c r="C88">
-        <v>554742.0924361807</v>
+        <v>554742.0924361811</v>
       </c>
       <c r="D88">
         <v>562573.0406010622</v>
@@ -1870,7 +1870,7 @@
         <v>630652.2738970977</v>
       </c>
       <c r="C89">
-        <v>594366.5276101936</v>
+        <v>594366.5276101941</v>
       </c>
       <c r="D89">
         <v>543173.9702355084</v>
@@ -1884,13 +1884,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>130060884.6234577</v>
+        <v>130060884.6234576</v>
       </c>
       <c r="C90">
         <v>133445643.7895419</v>
       </c>
       <c r="D90">
-        <v>129828263.1421357</v>
+        <v>129828263.1421356</v>
       </c>
       <c r="E90">
         <v>146324919.6514162</v>
@@ -1901,13 +1901,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>30003837.96349244</v>
+        <v>30003837.96349243</v>
       </c>
       <c r="C91">
-        <v>34219058.67431142</v>
+        <v>34219058.67431143</v>
       </c>
       <c r="D91">
-        <v>36030514.72218228</v>
+        <v>36030514.72218227</v>
       </c>
       <c r="E91">
         <v>43892657.82102081</v>
@@ -1918,7 +1918,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>26773336.23585978</v>
+        <v>26773336.23585977</v>
       </c>
       <c r="C92">
         <v>32308349.81432449</v>
@@ -1935,13 +1935,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>54033460.40328064</v>
+        <v>54033460.40328062</v>
       </c>
       <c r="C93">
-        <v>61533510.33185188</v>
+        <v>61533510.33185189</v>
       </c>
       <c r="D93">
-        <v>69988851.95447379</v>
+        <v>69988851.95447378</v>
       </c>
       <c r="E93">
         <v>93085197.48651175</v>
@@ -1952,16 +1952,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>34142979.0693639</v>
+        <v>34142979.06936388</v>
       </c>
       <c r="C94">
-        <v>48185180.69469125</v>
+        <v>48185180.69469124</v>
       </c>
       <c r="D94">
-        <v>77519046.3795837</v>
+        <v>77519046.37958369</v>
       </c>
       <c r="E94">
-        <v>131094238.5360235</v>
+        <v>131094238.5360233</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1986,13 +1986,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>4823625.867287133</v>
+        <v>4823625.867287132</v>
       </c>
       <c r="C96">
-        <v>5775551.781324135</v>
+        <v>5775551.781324137</v>
       </c>
       <c r="D96">
-        <v>6808583.181069655</v>
+        <v>6808583.181069654</v>
       </c>
       <c r="E96">
         <v>9250702.855802409</v>
@@ -2003,13 +2003,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>5044893.108905809</v>
+        <v>5044893.108905807</v>
       </c>
       <c r="C97">
         <v>6079528.190867512</v>
       </c>
       <c r="D97">
-        <v>6893161.854126422</v>
+        <v>6893161.854126421</v>
       </c>
       <c r="E97">
         <v>9154341.367721135</v>
@@ -2023,10 +2023,10 @@
         <v>5681411.314875276</v>
       </c>
       <c r="C98">
-        <v>7325112.426330499</v>
+        <v>7325112.426330498</v>
       </c>
       <c r="D98">
-        <v>8758510.161007849</v>
+        <v>8758510.161007853</v>
       </c>
       <c r="E98">
         <v>12128677.65705464</v>
@@ -2040,13 +2040,13 @@
         <v>2945916.978083476</v>
       </c>
       <c r="C99">
-        <v>3004119.141135542</v>
+        <v>3004119.141135541</v>
       </c>
       <c r="D99">
-        <v>3065478.556352747</v>
+        <v>3065478.556352749</v>
       </c>
       <c r="E99">
-        <v>3593682.26875693</v>
+        <v>3593682.268756931</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2057,13 +2057,13 @@
         <v>7926861.489573441</v>
       </c>
       <c r="C100">
-        <v>8035039.157798338</v>
+        <v>8035039.15779834</v>
       </c>
       <c r="D100">
         <v>8076505.27412492</v>
       </c>
       <c r="E100">
-        <v>9562509.91765926</v>
+        <v>9562509.917659258</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2074,13 +2074,13 @@
         <v>3766354.077918872</v>
       </c>
       <c r="C101">
-        <v>4296812.383849379</v>
+        <v>4296812.38384938</v>
       </c>
       <c r="D101">
         <v>4812425.422406041</v>
       </c>
       <c r="E101">
-        <v>6279857.25935832</v>
+        <v>6279857.259358319</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2091,13 +2091,13 @@
         <v>788306.6674713918</v>
       </c>
       <c r="C102">
-        <v>773426.2290928881</v>
+        <v>773426.2290928883</v>
       </c>
       <c r="D102">
         <v>753249.1965505107</v>
       </c>
       <c r="E102">
-        <v>856344.17173068</v>
+        <v>856344.1717306798</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2105,16 +2105,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>3854018.196143494</v>
+        <v>3854018.196143496</v>
       </c>
       <c r="C103">
-        <v>3954982.100333914</v>
+        <v>3954982.100333916</v>
       </c>
       <c r="D103">
-        <v>3948847.179117988</v>
+        <v>3948847.179117989</v>
       </c>
       <c r="E103">
-        <v>4523269.909189804</v>
+        <v>4523269.909189802</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2122,16 +2122,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>9058929.368254811</v>
+        <v>9058929.368254816</v>
       </c>
       <c r="C104">
-        <v>9771132.247883787</v>
+        <v>9771132.247883791</v>
       </c>
       <c r="D104">
         <v>10229394.59733422</v>
       </c>
       <c r="E104">
-        <v>12545673.14435663</v>
+        <v>12545673.14435662</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2139,10 +2139,10 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>991011.9134399795</v>
+        <v>991011.9134399798</v>
       </c>
       <c r="C105">
-        <v>1333061.146432616</v>
+        <v>1333061.146432615</v>
       </c>
       <c r="D105">
         <v>1492583.463054809</v>
@@ -2156,13 +2156,13 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>993303.6587998697</v>
+        <v>993303.6587998702</v>
       </c>
       <c r="C106">
         <v>1202004.363826974</v>
       </c>
       <c r="D106">
-        <v>1429106.598156986</v>
+        <v>1429106.598156987</v>
       </c>
       <c r="E106">
         <v>1877583.735890107</v>
@@ -2173,16 +2173,16 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>4291071.806015437</v>
+        <v>4291071.806015439</v>
       </c>
       <c r="C107">
-        <v>5234535.132794886</v>
+        <v>5234535.132794888</v>
       </c>
       <c r="D107">
-        <v>6694236.170314304</v>
+        <v>6694236.170314305</v>
       </c>
       <c r="E107">
-        <v>9899986.971056931</v>
+        <v>9899986.971056925</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2190,16 +2190,16 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>9332028.851559807</v>
+        <v>9332028.851559808</v>
       </c>
       <c r="C108">
-        <v>9896969.117454268</v>
+        <v>9896969.117454264</v>
       </c>
       <c r="D108">
         <v>10369527.21701236</v>
       </c>
       <c r="E108">
-        <v>12713192.58974677</v>
+        <v>12713192.58974676</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2210,7 +2210,7 @@
         <v>1369074.29078372</v>
       </c>
       <c r="C109">
-        <v>1639552.789165638</v>
+        <v>1639552.789165637</v>
       </c>
       <c r="D109">
         <v>1902236.483234121</v>
@@ -2227,7 +2227,7 @@
         <v>69822788.8299697</v>
       </c>
       <c r="C110">
-        <v>55210986.94678706</v>
+        <v>55210986.94678704</v>
       </c>
       <c r="D110">
         <v>45580512.65595606</v>
@@ -2261,13 +2261,13 @@
         <v>2383053.335999212</v>
       </c>
       <c r="C112">
-        <v>2865905.641656192</v>
+        <v>2865905.641656193</v>
       </c>
       <c r="D112">
-        <v>3585929.459306472</v>
+        <v>3585929.459306471</v>
       </c>
       <c r="E112">
-        <v>5127957.963346763</v>
+        <v>5127957.963346762</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2281,10 +2281,10 @@
         <v>1043623.146038297</v>
       </c>
       <c r="D113">
-        <v>1003952.466043734</v>
+        <v>1003952.466043733</v>
       </c>
       <c r="E113">
-        <v>1047725.058983117</v>
+        <v>1047725.058983118</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2295,13 +2295,13 @@
         <v>1914599.231106275</v>
       </c>
       <c r="C114">
-        <v>2273607.56815486</v>
+        <v>2273607.568154861</v>
       </c>
       <c r="D114">
-        <v>2976001.952915353</v>
+        <v>2976001.952915352</v>
       </c>
       <c r="E114">
-        <v>4231197.353585666</v>
+        <v>4231197.353585667</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2309,16 +2309,16 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>5123564.672398306</v>
+        <v>5123564.672398305</v>
       </c>
       <c r="C115">
-        <v>5383255.191759604</v>
+        <v>5383255.191759605</v>
       </c>
       <c r="D115">
-        <v>5565661.348298586</v>
+        <v>5565661.348298585</v>
       </c>
       <c r="E115">
-        <v>6767223.213924826</v>
+        <v>6767223.213924825</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2326,16 +2326,16 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>3852602.893198727</v>
+        <v>3852602.893198726</v>
       </c>
       <c r="C116">
-        <v>4143944.644016386</v>
+        <v>4143944.644016387</v>
       </c>
       <c r="D116">
-        <v>4482411.82413309</v>
+        <v>4482411.824133089</v>
       </c>
       <c r="E116">
-        <v>5716412.155861965</v>
+        <v>5716412.155861964</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2346,13 +2346,13 @@
         <v>650963.7385761334</v>
       </c>
       <c r="C117">
-        <v>745445.104313069</v>
+        <v>745445.1043130693</v>
       </c>
       <c r="D117">
-        <v>788819.7947486478</v>
+        <v>788819.7947486476</v>
       </c>
       <c r="E117">
-        <v>1007427.94132992</v>
+        <v>1007427.941329921</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2363,13 +2363,13 @@
         <v>536087.7847097568</v>
       </c>
       <c r="C118">
-        <v>409994.807372188</v>
+        <v>409994.8073721881</v>
       </c>
       <c r="D118">
-        <v>394409.8973743239</v>
+        <v>394409.8973743238</v>
       </c>
       <c r="E118">
-        <v>483565.4118383618</v>
+        <v>483565.411838362</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2383,10 +2383,10 @@
         <v>215030.8469914816</v>
       </c>
       <c r="D119">
-        <v>205381.3722894001</v>
+        <v>205381.3722894003</v>
       </c>
       <c r="E119">
-        <v>228889.697174383</v>
+        <v>228889.6971743829</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2394,16 +2394,16 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>15578201.56402488</v>
+        <v>15578201.56402487</v>
       </c>
       <c r="C120">
-        <v>19646353.59091803</v>
+        <v>19646353.59091802</v>
       </c>
       <c r="D120">
         <v>22464940.16522805</v>
       </c>
       <c r="E120">
-        <v>29553093.78954701</v>
+        <v>29553093.78954698</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2411,16 +2411,16 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>18418426.15857085</v>
+        <v>18418426.15857084</v>
       </c>
       <c r="C121">
-        <v>16357908.14007767</v>
+        <v>16357908.14007766</v>
       </c>
       <c r="D121">
         <v>14269925.69479096</v>
       </c>
       <c r="E121">
-        <v>14247992.34021707</v>
+        <v>14247992.34021705</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2431,13 +2431,13 @@
         <v>12914796.21930598</v>
       </c>
       <c r="C122">
-        <v>12522763.24621613</v>
+        <v>12522763.24621612</v>
       </c>
       <c r="D122">
         <v>12421046.26424345</v>
       </c>
       <c r="E122">
-        <v>14369416.54796178</v>
+        <v>14369416.54796179</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2445,16 +2445,16 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>5298377.936125529</v>
+        <v>5298377.936125528</v>
       </c>
       <c r="C123">
-        <v>5673743.865599541</v>
+        <v>5673743.865599538</v>
       </c>
       <c r="D123">
-        <v>5840617.365631717</v>
+        <v>5840617.365631715</v>
       </c>
       <c r="E123">
-        <v>6989353.66834395</v>
+        <v>6989353.668343951</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2465,13 +2465,13 @@
         <v>2980337.58907061</v>
       </c>
       <c r="C124">
-        <v>2877398.67469691</v>
+        <v>2877398.674696909</v>
       </c>
       <c r="D124">
-        <v>2569871.640877956</v>
+        <v>2569871.640877955</v>
       </c>
       <c r="E124">
-        <v>2648140.209745223</v>
+        <v>2648140.209745224</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2485,7 +2485,7 @@
         <v>6098840.676352892</v>
       </c>
       <c r="D125">
-        <v>6189769.166915323</v>
+        <v>6189769.166915325</v>
       </c>
       <c r="E125">
         <v>7284157.755177467</v>
@@ -2502,7 +2502,7 @@
         <v>5416733.495445003</v>
       </c>
       <c r="D126">
-        <v>4536601.004323032</v>
+        <v>4536601.004323034</v>
       </c>
       <c r="E126">
         <v>4174546.549750829</v>
@@ -2519,7 +2519,7 @@
         <v>9061459.22937981</v>
       </c>
       <c r="D127">
-        <v>9674694.124227978</v>
+        <v>9674694.124227975</v>
       </c>
       <c r="E127">
         <v>12016088.9613323</v>
@@ -2530,13 +2530,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1549425.636341004</v>
+        <v>1549425.636341003</v>
       </c>
       <c r="C128">
         <v>1694308.565307489</v>
       </c>
       <c r="D128">
-        <v>1802715.135137868</v>
+        <v>1802715.135137869</v>
       </c>
       <c r="E128">
         <v>2208016.533162907</v>
@@ -2567,13 +2567,13 @@
         <v>2948507.678012366</v>
       </c>
       <c r="C130">
-        <v>3828321.289863321</v>
+        <v>3828321.28986332</v>
       </c>
       <c r="D130">
-        <v>4691603.000909233</v>
+        <v>4691603.000909235</v>
       </c>
       <c r="E130">
-        <v>6589425.377344155</v>
+        <v>6589425.377344154</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2584,13 +2584,13 @@
         <v>9470964.056645781</v>
       </c>
       <c r="C131">
-        <v>8976753.369334685</v>
+        <v>8976753.369334681</v>
       </c>
       <c r="D131">
-        <v>8091939.120834274</v>
+        <v>8091939.120834277</v>
       </c>
       <c r="E131">
-        <v>8359718.762302286</v>
+        <v>8359718.762302285</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2601,13 +2601,13 @@
         <v>20505530.66981327</v>
       </c>
       <c r="C132">
-        <v>22837916.66021913</v>
+        <v>22837916.66021911</v>
       </c>
       <c r="D132">
         <v>23414972.77518003</v>
       </c>
       <c r="E132">
-        <v>27882120.81309057</v>
+        <v>27882120.81309056</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2618,10 +2618,10 @@
         <v>9739010.20919236</v>
       </c>
       <c r="C133">
-        <v>9856827.229073379</v>
+        <v>9856827.229073375</v>
       </c>
       <c r="D133">
-        <v>9598417.148649165</v>
+        <v>9598417.148649169</v>
       </c>
       <c r="E133">
         <v>10769284.7584953</v>
@@ -2632,16 +2632,16 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>6309515.136016134</v>
+        <v>6309515.136016131</v>
       </c>
       <c r="C134">
-        <v>9989073.988762479</v>
+        <v>9989073.988762477</v>
       </c>
       <c r="D134">
-        <v>18456915.80466279</v>
+        <v>18456915.80466278</v>
       </c>
       <c r="E134">
-        <v>33420968.75089081</v>
+        <v>33420968.75089078</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2649,16 +2649,16 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>10337499.14304483</v>
+        <v>10337499.14304484</v>
       </c>
       <c r="C135">
-        <v>9807333.942151941</v>
+        <v>9807333.942151936</v>
       </c>
       <c r="D135">
-        <v>9941234.029284202</v>
+        <v>9941234.0292842</v>
       </c>
       <c r="E135">
-        <v>11997267.97318171</v>
+        <v>11997267.9731817</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2672,10 +2672,10 @@
         <v>15826704.4690045</v>
       </c>
       <c r="D136">
-        <v>18921520.05702044</v>
+        <v>18921520.05702043</v>
       </c>
       <c r="E136">
-        <v>25938130.53701515</v>
+        <v>25938130.53701514</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2686,13 +2686,13 @@
         <v>3372904.743475086</v>
       </c>
       <c r="C137">
-        <v>3589116.040785174</v>
+        <v>3589116.040785173</v>
       </c>
       <c r="D137">
-        <v>3674491.618216023</v>
+        <v>3674491.618216022</v>
       </c>
       <c r="E137">
-        <v>4419088.906306285</v>
+        <v>4419088.906306283</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2706,10 +2706,10 @@
         <v>8561987.663559811</v>
       </c>
       <c r="D138">
-        <v>8489342.70415426</v>
+        <v>8489342.704154257</v>
       </c>
       <c r="E138">
-        <v>9798849.313983502</v>
+        <v>9798849.313983496</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2723,7 +2723,7 @@
         <v>55578050.28817935</v>
       </c>
       <c r="D139">
-        <v>59794201.39301702</v>
+        <v>59794201.39301704</v>
       </c>
       <c r="E139">
         <v>73257000.55108954</v>
@@ -2774,7 +2774,7 @@
         <v>2990363.966312494</v>
       </c>
       <c r="D142">
-        <v>3864392.445830843</v>
+        <v>3864392.445830844</v>
       </c>
       <c r="E142">
         <v>5638768.483727225</v>
@@ -2791,7 +2791,7 @@
         <v>15714711.94322696</v>
       </c>
       <c r="D143">
-        <v>19911808.08356827</v>
+        <v>19911808.08356828</v>
       </c>
       <c r="E143">
         <v>28290211.83114975</v>
@@ -2802,13 +2802,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>4303960.100947233</v>
+        <v>4303960.100947232</v>
       </c>
       <c r="C144">
         <v>5082925.695922467</v>
       </c>
       <c r="D144">
-        <v>6473386.167085982</v>
+        <v>6473386.167085984</v>
       </c>
       <c r="E144">
         <v>9430070.610383248</v>
@@ -2819,13 +2819,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>5293870.924165097</v>
+        <v>5293870.924165095</v>
       </c>
       <c r="C145">
         <v>7666746.258016387</v>
       </c>
       <c r="D145">
-        <v>12332210.35628405</v>
+        <v>12332210.35628406</v>
       </c>
       <c r="E145">
         <v>20654154.65396136</v>
@@ -2836,13 +2836,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>8349682.595837632</v>
+        <v>8349682.595837629</v>
       </c>
       <c r="C146">
         <v>11351867.38756018</v>
       </c>
       <c r="D146">
-        <v>12373181.15480991</v>
+        <v>12373181.15480992</v>
       </c>
       <c r="E146">
         <v>15272114.35437677</v>
@@ -2853,10 +2853,10 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>8138865.28199904</v>
+        <v>8138865.281999044</v>
       </c>
       <c r="C147">
-        <v>9456732.240687735</v>
+        <v>9456732.240687739</v>
       </c>
       <c r="D147">
         <v>11934845.2321456</v>
@@ -2870,16 +2870,16 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7131995.350205344</v>
+        <v>7131995.350205348</v>
       </c>
       <c r="C148">
-        <v>7756179.513195642</v>
+        <v>7756179.513195645</v>
       </c>
       <c r="D148">
-        <v>8050963.393888049</v>
+        <v>8050963.393888047</v>
       </c>
       <c r="E148">
-        <v>9772099.07884801</v>
+        <v>9772099.078848014</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2890,13 +2890,13 @@
         <v>4523988.187921855</v>
       </c>
       <c r="C149">
-        <v>4384266.671541852</v>
+        <v>4384266.671541851</v>
       </c>
       <c r="D149">
-        <v>4248044.931146067</v>
+        <v>4248044.931146068</v>
       </c>
       <c r="E149">
-        <v>4861588.301568075</v>
+        <v>4861588.301568077</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2910,10 +2910,10 @@
         <v>2550846.063442532</v>
       </c>
       <c r="D150">
-        <v>2587445.548970786</v>
+        <v>2587445.548970787</v>
       </c>
       <c r="E150">
-        <v>3081899.726886905</v>
+        <v>3081899.726886906</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2944,10 +2944,10 @@
         <v>5380690.91507409</v>
       </c>
       <c r="D152">
-        <v>5522458.410489887</v>
+        <v>5522458.410489888</v>
       </c>
       <c r="E152">
-        <v>6554462.79943553</v>
+        <v>6554462.799435532</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2961,10 +2961,10 @@
         <v>27744370.65276745</v>
       </c>
       <c r="D153">
-        <v>25562603.17523344</v>
+        <v>25562603.17523341</v>
       </c>
       <c r="E153">
-        <v>27134924.03343949</v>
+        <v>27134924.03343951</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2978,10 +2978,10 @@
         <v>6549732.063915923</v>
       </c>
       <c r="D154">
-        <v>6766571.428738263</v>
+        <v>6766571.428738256</v>
       </c>
       <c r="E154">
-        <v>8099977.323414774</v>
+        <v>8099977.323414778</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -2998,7 +2998,7 @@
         <v>14452804.50978106</v>
       </c>
       <c r="E155">
-        <v>15998198.11473289</v>
+        <v>15998198.1147329</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3009,13 +3009,13 @@
         <v>5228107.106785582</v>
       </c>
       <c r="C156">
-        <v>5572431.199988304</v>
+        <v>5572431.199988303</v>
       </c>
       <c r="D156">
         <v>5612739.615448955</v>
       </c>
       <c r="E156">
-        <v>6541135.189767636</v>
+        <v>6541135.189767639</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3026,13 +3026,13 @@
         <v>5301227.485901465</v>
       </c>
       <c r="C157">
-        <v>5355323.49089785</v>
+        <v>5355323.490897849</v>
       </c>
       <c r="D157">
-        <v>5332102.634676508</v>
+        <v>5332102.634676507</v>
       </c>
       <c r="E157">
-        <v>6225899.758935461</v>
+        <v>6225899.758935464</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3043,13 +3043,13 @@
         <v>14999741.52560211</v>
       </c>
       <c r="C158">
-        <v>15475312.61731186</v>
+        <v>15475312.61731185</v>
       </c>
       <c r="D158">
         <v>15103982.31210199</v>
       </c>
       <c r="E158">
-        <v>16901994.19920452</v>
+        <v>16901994.19920451</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3074,10 +3074,10 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2344463.181438489</v>
+        <v>2344463.18143849</v>
       </c>
       <c r="C160">
-        <v>2562048.939851987</v>
+        <v>2562048.939851985</v>
       </c>
       <c r="D160">
         <v>2742345.740141696</v>
@@ -3091,16 +3091,16 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>10363859.96972024</v>
+        <v>10363859.96972023</v>
       </c>
       <c r="C161">
-        <v>11361603.69183567</v>
+        <v>11361603.69183566</v>
       </c>
       <c r="D161">
         <v>12022627.24299156</v>
       </c>
       <c r="E161">
-        <v>14793301.53698522</v>
+        <v>14793301.53698523</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3108,10 +3108,10 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>6393990.494832244</v>
+        <v>6393990.494832245</v>
       </c>
       <c r="C162">
-        <v>8844333.326612338</v>
+        <v>8844333.326612331</v>
       </c>
       <c r="D162">
         <v>11003239.08081545</v>
@@ -3128,10 +3128,10 @@
         <v>8060563.96969266</v>
       </c>
       <c r="C163">
-        <v>8624031.922470974</v>
+        <v>8624031.92247097</v>
       </c>
       <c r="D163">
-        <v>8738060.680341752</v>
+        <v>8738060.68034175</v>
       </c>
       <c r="E163">
         <v>10693104.18046449</v>
@@ -3151,7 +3151,7 @@
         <v>1739879.339006101</v>
       </c>
       <c r="E164">
-        <v>2414571.911717789</v>
+        <v>2414571.911717788</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,16 +3159,16 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>8544583.37311719</v>
+        <v>8544583.373117192</v>
       </c>
       <c r="C165">
-        <v>8494123.03089812</v>
+        <v>8494123.030898122</v>
       </c>
       <c r="D165">
-        <v>8082251.485283465</v>
+        <v>8082251.485283463</v>
       </c>
       <c r="E165">
-        <v>8768634.246996226</v>
+        <v>8768634.246996222</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,16 +3176,16 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>3222956.886351221</v>
+        <v>3222956.886351222</v>
       </c>
       <c r="C166">
-        <v>3877751.81845349</v>
+        <v>3877751.818453491</v>
       </c>
       <c r="D166">
-        <v>4785543.642602052</v>
+        <v>4785543.642602051</v>
       </c>
       <c r="E166">
-        <v>6733058.439657816</v>
+        <v>6733058.439657814</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3210,16 +3210,16 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>825213.4344359526</v>
+        <v>825213.4344359529</v>
       </c>
       <c r="C168">
         <v>672446.6463715334</v>
       </c>
       <c r="D168">
-        <v>542650.5261214739</v>
+        <v>542650.5261214741</v>
       </c>
       <c r="E168">
-        <v>446948.4971916218</v>
+        <v>446948.4971916219</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3227,13 +3227,13 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>6563083.70940553</v>
+        <v>6563083.709405531</v>
       </c>
       <c r="C169">
-        <v>7635818.00917276</v>
+        <v>7635818.009172756</v>
       </c>
       <c r="D169">
-        <v>8505355.601687143</v>
+        <v>8505355.601687135</v>
       </c>
       <c r="E169">
         <v>11131667.80023236</v>
@@ -3247,13 +3247,13 @@
         <v>15284578.13544626</v>
       </c>
       <c r="C170">
-        <v>18541806.96465182</v>
+        <v>18541806.96465181</v>
       </c>
       <c r="D170">
-        <v>21215109.72515756</v>
+        <v>21215109.72515755</v>
       </c>
       <c r="E170">
-        <v>28131131.14176861</v>
+        <v>28131131.1417686</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3261,16 +3261,16 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>5670147.150302737</v>
+        <v>5670147.150302738</v>
       </c>
       <c r="C171">
-        <v>6099877.605028815</v>
+        <v>6099877.605028811</v>
       </c>
       <c r="D171">
-        <v>7302578.041852597</v>
+        <v>7302578.041852591</v>
       </c>
       <c r="E171">
-        <v>10245074.78959439</v>
+        <v>10245074.78959438</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3278,16 +3278,16 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>5537890.628784877</v>
+        <v>5537890.628784876</v>
       </c>
       <c r="C172">
-        <v>5497100.417755597</v>
+        <v>5497100.417755594</v>
       </c>
       <c r="D172">
-        <v>5175460.235371097</v>
+        <v>5175460.235371095</v>
       </c>
       <c r="E172">
-        <v>5596769.546529881</v>
+        <v>5596769.546529878</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3295,16 +3295,16 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>13778271.88441678</v>
+        <v>13778271.88441677</v>
       </c>
       <c r="C173">
-        <v>15182467.82046784</v>
+        <v>15182467.82046783</v>
       </c>
       <c r="D173">
-        <v>17665000.63808482</v>
+        <v>17665000.63808481</v>
       </c>
       <c r="E173">
-        <v>24203573.56525641</v>
+        <v>24203573.5652564</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3315,10 +3315,10 @@
         <v>27172827.23633525</v>
       </c>
       <c r="C174">
-        <v>31082761.57429306</v>
+        <v>31082761.57429305</v>
       </c>
       <c r="D174">
-        <v>36463490.57263912</v>
+        <v>36463490.57263913</v>
       </c>
       <c r="E174">
         <v>49937420.65930211</v>
@@ -3352,7 +3352,7 @@
         <v>14515266.03071442</v>
       </c>
       <c r="D176">
-        <v>15127870.86719276</v>
+        <v>15127870.86719277</v>
       </c>
       <c r="E176">
         <v>18611578.22217372</v>
@@ -3372,7 +3372,7 @@
         <v>16052351.86463232</v>
       </c>
       <c r="E177">
-        <v>23300729.09892917</v>
+        <v>23300729.09892918</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3383,10 +3383,10 @@
         <v>4010026.107649383</v>
       </c>
       <c r="C178">
-        <v>4955190.224803096</v>
+        <v>4955190.224803093</v>
       </c>
       <c r="D178">
-        <v>5928247.901939034</v>
+        <v>5928247.901939035</v>
       </c>
       <c r="E178">
         <v>8223499.550573652</v>
@@ -3397,7 +3397,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>16004738.49171028</v>
+        <v>16004738.49171029</v>
       </c>
       <c r="C179">
         <v>16653498.01082701</v>
@@ -3414,10 +3414,10 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>607225.8506339944</v>
+        <v>607225.8506339946</v>
       </c>
       <c r="C180">
-        <v>599354.6841942882</v>
+        <v>599354.6841942883</v>
       </c>
       <c r="D180">
         <v>1174803.368955096</v>
@@ -3431,16 +3431,16 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>86746.55009057063</v>
+        <v>86746.55009057066</v>
       </c>
       <c r="C181">
-        <v>85622.09774204117</v>
+        <v>85622.09774204119</v>
       </c>
       <c r="D181">
-        <v>41957.26317696772</v>
+        <v>41957.2631769677</v>
       </c>
       <c r="E181">
-        <v>48041.33941286467</v>
+        <v>48041.33941286468</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3451,10 +3451,10 @@
         <v>61101050.21734833</v>
       </c>
       <c r="C182">
-        <v>53297593.75425473</v>
+        <v>53297593.75425472</v>
       </c>
       <c r="D182">
-        <v>48160064.53584666</v>
+        <v>48160064.53584663</v>
       </c>
       <c r="E182">
         <v>50423514.85161731</v>
@@ -3468,10 +3468,10 @@
         <v>3621802.494745622</v>
       </c>
       <c r="C183">
-        <v>2661652.56934675</v>
+        <v>2661652.569346751</v>
       </c>
       <c r="D183">
-        <v>1991641.269048922</v>
+        <v>1991641.269048921</v>
       </c>
       <c r="E183">
         <v>1571529.873765944</v>
@@ -3485,10 +3485,10 @@
         <v>806341.2021652771</v>
       </c>
       <c r="C184">
-        <v>714193.3518149545</v>
+        <v>714193.3518149543</v>
       </c>
       <c r="D184">
-        <v>544840.8651975971</v>
+        <v>544840.8651975972</v>
       </c>
       <c r="E184">
         <v>403731.6718400563</v>
@@ -3516,16 +3516,16 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>4631873.418365454</v>
+        <v>4631873.418365452</v>
       </c>
       <c r="C186">
         <v>5243040.146093296</v>
       </c>
       <c r="D186">
-        <v>5711485.869435892</v>
+        <v>5711485.869435893</v>
       </c>
       <c r="E186">
-        <v>7592844.136932577</v>
+        <v>7592844.136932571</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3533,16 +3533,16 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1963914.329386953</v>
+        <v>1963914.329386952</v>
       </c>
       <c r="C187">
         <v>2148190.05985767</v>
       </c>
       <c r="D187">
-        <v>2391684.70782628</v>
+        <v>2391684.707826281</v>
       </c>
       <c r="E187">
-        <v>3177440.20947722</v>
+        <v>3177440.209477217</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3553,13 +3553,13 @@
         <v>5005539.934015061</v>
       </c>
       <c r="C188">
-        <v>4373608.470155059</v>
+        <v>4373608.47015506</v>
       </c>
       <c r="D188">
-        <v>3833723.661497553</v>
+        <v>3833723.661497551</v>
       </c>
       <c r="E188">
-        <v>3841115.919470094</v>
+        <v>3841115.919470093</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3570,13 +3570,13 @@
         <v>69105259.95233743</v>
       </c>
       <c r="C189">
-        <v>67346458.88189985</v>
+        <v>67346458.88189986</v>
       </c>
       <c r="D189">
-        <v>67055312.04292084</v>
+        <v>67055312.04292081</v>
       </c>
       <c r="E189">
-        <v>78982946.09410381</v>
+        <v>78982946.0941038</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3587,13 +3587,13 @@
         <v>22074791.21979304</v>
       </c>
       <c r="C190">
-        <v>24890454.70819952</v>
+        <v>24890454.70819953</v>
       </c>
       <c r="D190">
         <v>25163168.03273848</v>
       </c>
       <c r="E190">
-        <v>30648904.10743846</v>
+        <v>30648904.10743845</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3610,7 +3610,7 @@
         <v>1305575.374442873</v>
       </c>
       <c r="E191">
-        <v>1680311.580729064</v>
+        <v>1680311.580729065</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3618,16 +3618,16 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>4965368.304487767</v>
+        <v>4965368.304487765</v>
       </c>
       <c r="C192">
         <v>5060990.141020612</v>
       </c>
       <c r="D192">
-        <v>5068943.709124355</v>
+        <v>5068943.709124356</v>
       </c>
       <c r="E192">
-        <v>5859694.931763184</v>
+        <v>5859694.931763181</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3644,7 +3644,7 @@
         <v>14813900.86549338</v>
       </c>
       <c r="E193">
-        <v>18839571.77807496</v>
+        <v>18839571.77807495</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3655,7 +3655,7 @@
         <v>7488913.340978223</v>
       </c>
       <c r="C194">
-        <v>8335816.024667794</v>
+        <v>8335816.024667797</v>
       </c>
       <c r="D194">
         <v>9708545.19998436</v>
@@ -3672,13 +3672,13 @@
         <v>20180366.23572313</v>
       </c>
       <c r="C195">
-        <v>27339739.19376224</v>
+        <v>27339739.19376222</v>
       </c>
       <c r="D195">
-        <v>31830648.99419279</v>
+        <v>31830648.99419276</v>
       </c>
       <c r="E195">
-        <v>42753485.1796535</v>
+        <v>42753485.17965349</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3686,16 +3686,16 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>4871805.358822829</v>
+        <v>4871805.358822828</v>
       </c>
       <c r="C196">
-        <v>5520908.392726933</v>
+        <v>5520908.392726934</v>
       </c>
       <c r="D196">
         <v>6584102.47714344</v>
       </c>
       <c r="E196">
-        <v>9270103.122160701</v>
+        <v>9270103.122160699</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>10020195.50940113</v>
       </c>
       <c r="E197">
-        <v>11352287.00661996</v>
+        <v>11352287.00661995</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3726,10 +3726,10 @@
         <v>3417506.996940979</v>
       </c>
       <c r="D198">
-        <v>3501032.165935334</v>
+        <v>3501032.165935335</v>
       </c>
       <c r="E198">
-        <v>4153275.734129253</v>
+        <v>4153275.734129252</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3743,10 +3743,10 @@
         <v>7617334.872699774</v>
       </c>
       <c r="D199">
-        <v>7404481.822208063</v>
+        <v>7404481.822208064</v>
       </c>
       <c r="E199">
-        <v>8306551.468258507</v>
+        <v>8306551.468258504</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3760,7 +3760,7 @@
         <v>7329111.391030053</v>
       </c>
       <c r="D200">
-        <v>8128833.304815373</v>
+        <v>8128833.304815374</v>
       </c>
       <c r="E200">
         <v>10613926.87610809</v>
@@ -3771,16 +3771,16 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>6606746.089599864</v>
+        <v>6606746.089599865</v>
       </c>
       <c r="C201">
-        <v>7796387.917014996</v>
+        <v>7796387.917014993</v>
       </c>
       <c r="D201">
-        <v>8130652.022430144</v>
+        <v>8130652.022430146</v>
       </c>
       <c r="E201">
-        <v>9858300.218715915</v>
+        <v>9858300.21871591</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3788,13 +3788,13 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>47774037.77925624</v>
+        <v>47774037.77925622</v>
       </c>
       <c r="C202">
         <v>65251990.78340387</v>
       </c>
       <c r="D202">
-        <v>90186997.68824847</v>
+        <v>90186997.68824844</v>
       </c>
       <c r="E202">
         <v>139423293.8772373</v>
@@ -3822,16 +3822,16 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>6525275.005442081</v>
+        <v>6525275.005442078</v>
       </c>
       <c r="C204">
-        <v>6659139.803366806</v>
+        <v>6659139.803366807</v>
       </c>
       <c r="D204">
-        <v>6530624.066743405</v>
+        <v>6530624.066743401</v>
       </c>
       <c r="E204">
-        <v>7555776.168819639</v>
+        <v>7555776.168819636</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3839,13 +3839,13 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>795765.2445661074</v>
+        <v>795765.2445661072</v>
       </c>
       <c r="C205">
-        <v>895673.7747218511</v>
+        <v>895673.7747218513</v>
       </c>
       <c r="D205">
-        <v>954769.6004010827</v>
+        <v>954769.6004010821</v>
       </c>
       <c r="E205">
         <v>1237203.11536228</v>
@@ -3876,7 +3876,7 @@
         <v>2625315.687811282</v>
       </c>
       <c r="C207">
-        <v>2711262.523972839</v>
+        <v>2711262.523972838</v>
       </c>
       <c r="D207">
         <v>2231145.146964846</v>
@@ -3890,10 +3890,10 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>2392986.865881081</v>
+        <v>2392986.86588108</v>
       </c>
       <c r="C208">
-        <v>2590224.018438337</v>
+        <v>2590224.018438336</v>
       </c>
       <c r="D208">
         <v>2273643.149764176</v>
@@ -3913,10 +3913,10 @@
         <v>16831573.15809847</v>
       </c>
       <c r="D209">
-        <v>15481091.27081395</v>
+        <v>15481091.27081394</v>
       </c>
       <c r="E209">
-        <v>14380522.40584557</v>
+        <v>14380522.40584558</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3958,10 +3958,10 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>12692676.42927967</v>
+        <v>12692676.42927968</v>
       </c>
       <c r="C212">
-        <v>12315782.56172881</v>
+        <v>12315782.56172882</v>
       </c>
       <c r="D212">
         <v>10829865.10732481</v>
@@ -3975,7 +3975,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>2160658.043950879</v>
+        <v>2160658.043950878</v>
       </c>
       <c r="C213">
         <v>2396562.409583134</v>
@@ -3995,10 +3995,10 @@
         <v>1635055.813644185</v>
       </c>
       <c r="C214">
-        <v>1757643.764312366</v>
+        <v>1757643.764312367</v>
       </c>
       <c r="D214">
-        <v>1514951.448368842</v>
+        <v>1514951.448368843</v>
       </c>
       <c r="E214">
         <v>1244187.508523894</v>
@@ -4012,10 +4012,10 @@
         <v>1362546.511370154</v>
       </c>
       <c r="C215">
-        <v>1567628.222224543</v>
+        <v>1567628.222224544</v>
       </c>
       <c r="D215">
-        <v>1556456.967502235</v>
+        <v>1556456.967502236</v>
       </c>
       <c r="E215">
         <v>1528573.224757927</v>
@@ -4026,10 +4026,10 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>5079223.564623967</v>
+        <v>5079223.564623968</v>
       </c>
       <c r="C216">
-        <v>5609679.310635725</v>
+        <v>5609679.310635723</v>
       </c>
       <c r="D216">
         <v>4811674.723571938</v>
@@ -4043,16 +4043,16 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>1985555.582655967</v>
+        <v>1985555.582655968</v>
       </c>
       <c r="C217">
-        <v>2783379.369409966</v>
+        <v>2783379.369409967</v>
       </c>
       <c r="D217">
         <v>3686506.748675076</v>
       </c>
       <c r="E217">
-        <v>4534511.964727892</v>
+        <v>4534511.964727893</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4063,7 +4063,7 @@
         <v>3925984.902069754</v>
       </c>
       <c r="C218">
-        <v>3962777.407295545</v>
+        <v>3962777.407295546</v>
       </c>
       <c r="D218">
         <v>3334424.643464535</v>
@@ -4077,16 +4077,16 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>3825903.679578188</v>
+        <v>3825903.679578186</v>
       </c>
       <c r="C219">
         <v>4021060.570682826</v>
       </c>
       <c r="D219">
-        <v>3502870.000292453</v>
+        <v>3502870.000292454</v>
       </c>
       <c r="E219">
-        <v>3105928.993167107</v>
+        <v>3105928.993167106</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4111,13 +4111,13 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>2974906.321702817</v>
+        <v>2974906.321702818</v>
       </c>
       <c r="C221">
-        <v>2866749.020045369</v>
+        <v>2866749.02004537</v>
       </c>
       <c r="D221">
-        <v>2419254.737440148</v>
+        <v>2419254.737440149</v>
       </c>
       <c r="E221">
         <v>2136845.87584408</v>
@@ -4128,13 +4128,13 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>2921129.160759022</v>
+        <v>2921129.160759021</v>
       </c>
       <c r="C222">
         <v>3390305.97136003</v>
       </c>
       <c r="D222">
-        <v>3642056.887721292</v>
+        <v>3642056.887721293</v>
       </c>
       <c r="E222">
         <v>4112678.390952306</v>
@@ -4145,10 +4145,10 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>3596932.188967952</v>
+        <v>3596932.188967953</v>
       </c>
       <c r="C223">
-        <v>3030563.249762247</v>
+        <v>3030563.249762249</v>
       </c>
       <c r="D223">
         <v>2274099.45319374</v>
@@ -4162,16 +4162,16 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>2122291.70915133</v>
+        <v>2122291.709151329</v>
       </c>
       <c r="C224">
         <v>2298054.026964157</v>
       </c>
       <c r="D224">
-        <v>2033856.17982208</v>
+        <v>2033856.179822081</v>
       </c>
       <c r="E224">
-        <v>1715383.529210805</v>
+        <v>1715383.529210806</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4179,13 +4179,13 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>2425476.239030092</v>
+        <v>2425476.239030091</v>
       </c>
       <c r="C225">
         <v>2434572.087971929</v>
       </c>
       <c r="D225">
-        <v>1974617.650312699</v>
+        <v>1974617.6503127</v>
       </c>
       <c r="E225">
         <v>1484466.515663197</v>
@@ -4196,16 +4196,16 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>2014011.519908916</v>
+        <v>2014011.519908915</v>
       </c>
       <c r="C226">
         <v>2275301.016796195</v>
       </c>
       <c r="D226">
-        <v>2053602.356325207</v>
+        <v>2053602.356325208</v>
       </c>
       <c r="E226">
-        <v>1764865.746399578</v>
+        <v>1764865.746399579</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4213,13 +4213,13 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>2228334.277863031</v>
+        <v>2228334.27786303</v>
       </c>
       <c r="C227">
-        <v>2415288.244658695</v>
+        <v>2415288.244658696</v>
       </c>
       <c r="D227">
-        <v>2319892.672829265</v>
+        <v>2319892.672829266</v>
       </c>
       <c r="E227">
         <v>2169256.795675162</v>
@@ -4239,7 +4239,7 @@
         <v>12495702.61234474</v>
       </c>
       <c r="E228">
-        <v>7665596.901694988</v>
+        <v>7665596.901694986</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4250,13 +4250,13 @@
         <v>3692265.356708246</v>
       </c>
       <c r="C229">
-        <v>4059045.310508578</v>
+        <v>4059045.310508579</v>
       </c>
       <c r="D229">
         <v>3643778.505101466</v>
       </c>
       <c r="E229">
-        <v>3311670.281130855</v>
+        <v>3311670.281130854</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4264,13 +4264,13 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>3028995.527551959</v>
+        <v>3028995.52755196</v>
       </c>
       <c r="C230">
-        <v>2839446.648425889</v>
+        <v>2839446.648425891</v>
       </c>
       <c r="D230">
-        <v>2395062.190065747</v>
+        <v>2395062.190065748</v>
       </c>
       <c r="E230">
         <v>2159578.278778592</v>
@@ -4281,13 +4281,13 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>8555994.435121723</v>
+        <v>8555994.435121724</v>
       </c>
       <c r="C231">
-        <v>11945780.51051807</v>
+        <v>11945780.51051808</v>
       </c>
       <c r="D231">
-        <v>11880175.30092312</v>
+        <v>11880175.30092311</v>
       </c>
       <c r="E231">
         <v>11772639.50963924</v>
@@ -4304,7 +4304,7 @@
         <v>2123668.519825459</v>
       </c>
       <c r="D232">
-        <v>2238289.232485395</v>
+        <v>2238289.232485394</v>
       </c>
       <c r="E232">
         <v>2404359.345990386</v>
@@ -4321,7 +4321,7 @@
         <v>2123668.519825459</v>
       </c>
       <c r="D233">
-        <v>2238289.232485395</v>
+        <v>2238289.232485394</v>
       </c>
       <c r="E233">
         <v>2404359.345990386</v>
@@ -4341,7 +4341,7 @@
         <v>10668399.17584487</v>
       </c>
       <c r="E234">
-        <v>9812135.991365159</v>
+        <v>9812135.991365161</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4366,16 +4366,16 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>15374762.92198152</v>
+        <v>15374762.92198153</v>
       </c>
       <c r="C236">
         <v>13544536.80746328</v>
       </c>
       <c r="D236">
-        <v>9967189.840343328</v>
+        <v>9967189.840343326</v>
       </c>
       <c r="E236">
-        <v>7085247.841745863</v>
+        <v>7085247.841745864</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4383,13 +4383,13 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>2228334.277863031</v>
+        <v>2228334.27786303</v>
       </c>
       <c r="C237">
         <v>2576307.460969275</v>
       </c>
       <c r="D237">
-        <v>2359890.822360804</v>
+        <v>2359890.822360805</v>
       </c>
       <c r="E237">
         <v>2035764.069787459</v>
@@ -4403,7 +4403,7 @@
         <v>2359412.76479615</v>
       </c>
       <c r="C238">
-        <v>2530301.970594823</v>
+        <v>2530301.970594824</v>
       </c>
       <c r="D238">
         <v>2299893.598063496</v>
@@ -4417,7 +4417,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>3386194.245772253</v>
+        <v>3386194.245772252</v>
       </c>
       <c r="C239">
         <v>2875343.148403209</v>
@@ -4434,7 +4434,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>3121317.006653255</v>
+        <v>3121317.006653254</v>
       </c>
       <c r="C240">
         <v>3569224.27971598</v>
@@ -4451,13 +4451,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>813823.2608712252</v>
+        <v>813823.260871225</v>
       </c>
       <c r="C241">
         <v>814464.3022650136</v>
       </c>
       <c r="D241">
-        <v>610623.7699755913</v>
+        <v>610623.7699755912</v>
       </c>
       <c r="E241">
         <v>425498.9233691248</v>
@@ -4468,16 +4468,16 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>2190612.836890256</v>
+        <v>2190612.836890257</v>
       </c>
       <c r="C242">
-        <v>2511818.188992133</v>
+        <v>2511818.188992134</v>
       </c>
       <c r="D242">
         <v>2588602.569060959</v>
       </c>
       <c r="E242">
-        <v>2841550.366813937</v>
+        <v>2841550.366813936</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4485,10 +4485,10 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>3480697.580657538</v>
+        <v>3480697.580657537</v>
       </c>
       <c r="C243">
-        <v>3739476.386002208</v>
+        <v>3739476.386002209</v>
       </c>
       <c r="D243">
         <v>3442005.951857546</v>
@@ -4502,13 +4502,13 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>2812638.704155391</v>
+        <v>2812638.704155392</v>
       </c>
       <c r="C244">
-        <v>2730237.161947971</v>
+        <v>2730237.161947972</v>
       </c>
       <c r="D244">
-        <v>2443447.28481455</v>
+        <v>2443447.284814551</v>
       </c>
       <c r="E244">
         <v>2341437.502254684</v>
@@ -4519,7 +4519,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>2871575.504042469</v>
+        <v>2871575.504042468</v>
       </c>
       <c r="C245">
         <v>3333641.739459333</v>
@@ -4536,7 +4536,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>757664.6272299183</v>
+        <v>757664.627229918</v>
       </c>
       <c r="C246">
         <v>1127366.556861113</v>
@@ -4545,7 +4545,7 @@
         <v>1777306.615634871</v>
       </c>
       <c r="E246">
-        <v>2593576.954866691</v>
+        <v>2593576.95486669</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4553,7 +4553,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>757664.6272299183</v>
+        <v>757664.627229918</v>
       </c>
       <c r="C247">
         <v>1127366.556861113</v>
@@ -4562,7 +4562,7 @@
         <v>1777306.615634871</v>
       </c>
       <c r="E247">
-        <v>2593576.954866691</v>
+        <v>2593576.95486669</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4573,13 +4573,13 @@
         <v>34605466.30390161</v>
       </c>
       <c r="C248">
-        <v>30911349.15846511</v>
+        <v>30911349.1584651</v>
       </c>
       <c r="D248">
         <v>23336182.18240068</v>
       </c>
       <c r="E248">
-        <v>17000072.89790733</v>
+        <v>17000072.89790732</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4596,7 +4596,7 @@
         <v>12694621.17780899</v>
       </c>
       <c r="E249">
-        <v>8482666.33889116</v>
+        <v>8482666.338891158</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4604,7 +4604,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>17952623.15683092</v>
+        <v>17952623.15683093</v>
       </c>
       <c r="C250">
         <v>18905095.18097217</v>
@@ -4613,7 +4613,7 @@
         <v>17709112.9271033</v>
       </c>
       <c r="E250">
-        <v>18424632.27831623</v>
+        <v>18424632.27831624</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4621,7 +4621,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>9768437.963029291</v>
+        <v>9768437.963029293</v>
       </c>
       <c r="C251">
         <v>10494430.77373439</v>
@@ -4630,7 +4630,7 @@
         <v>10776322.83684525</v>
       </c>
       <c r="E251">
-        <v>12545693.36530561</v>
+        <v>12545693.36530562</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4638,16 +4638,16 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>4541691.965794935</v>
+        <v>4541691.965794934</v>
       </c>
       <c r="C252">
-        <v>5553008.312846618</v>
+        <v>5553008.312846619</v>
       </c>
       <c r="D252">
-        <v>6543165.35547429</v>
+        <v>6543165.355474289</v>
       </c>
       <c r="E252">
-        <v>8518376.42549298</v>
+        <v>8518376.425492976</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4655,16 +4655,16 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>554593.1295421132</v>
+        <v>554593.1295421128</v>
       </c>
       <c r="C253">
-        <v>472876.5761317868</v>
+        <v>472876.5761317869</v>
       </c>
       <c r="D253">
-        <v>407786.5137164147</v>
+        <v>407786.5137164146</v>
       </c>
       <c r="E253">
-        <v>396794.712164824</v>
+        <v>396794.7121648241</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4675,13 +4675,13 @@
         <v>10822169.40512248</v>
       </c>
       <c r="C254">
-        <v>9941718.888724336</v>
+        <v>9941718.888724331</v>
       </c>
       <c r="D254">
-        <v>8201647.084686439</v>
+        <v>8201647.084686443</v>
       </c>
       <c r="E254">
-        <v>7327914.359772421</v>
+        <v>7327914.359772423</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4689,13 +4689,13 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>591566.0048449207</v>
+        <v>591566.0048449204</v>
       </c>
       <c r="C255">
-        <v>509251.6973726935</v>
+        <v>509251.6973726936</v>
       </c>
       <c r="D255">
-        <v>407786.5137164147</v>
+        <v>407786.5137164146</v>
       </c>
       <c r="E255">
         <v>324650.2190439469</v>
@@ -4715,7 +4715,7 @@
         <v>2764099.864326895</v>
       </c>
       <c r="E256">
-        <v>2601962.351915331</v>
+        <v>2601962.351915332</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4723,16 +4723,16 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>1388545.152835996</v>
+        <v>1388545.152835997</v>
       </c>
       <c r="C257">
         <v>1195093.384442459</v>
       </c>
       <c r="D257">
-        <v>958785.2622893954</v>
+        <v>958785.2622893959</v>
       </c>
       <c r="E257">
-        <v>841140.0760984265</v>
+        <v>841140.0760984261</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4740,7 +4740,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>1383531.791354899</v>
+        <v>1383531.7913549</v>
       </c>
       <c r="C258">
         <v>1364232.69842142</v>
@@ -4757,7 +4757,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>1418120.086138771</v>
+        <v>1418120.086138772</v>
       </c>
       <c r="C259">
         <v>1432444.333342491</v>
@@ -4766,7 +4766,7 @@
         <v>1312616.335871904</v>
       </c>
       <c r="E259">
-        <v>1396871.427717209</v>
+        <v>1396871.427717208</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4774,16 +4774,16 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>5098274.064545733</v>
+        <v>5098274.064545737</v>
       </c>
       <c r="C260">
         <v>5464372.17683791</v>
       </c>
       <c r="D260">
-        <v>5351251.065322664</v>
+        <v>5351251.065322662</v>
       </c>
       <c r="E260">
-        <v>6064861.588107347</v>
+        <v>6064861.588107346</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4797,7 +4797,7 @@
         <v>1041872.006012395</v>
       </c>
       <c r="D261">
-        <v>878337.1056271844</v>
+        <v>878337.1056271849</v>
       </c>
       <c r="E261">
         <v>823671.3188290249</v>
@@ -4808,7 +4808,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>974817.9605702799</v>
+        <v>974817.9605702802</v>
       </c>
       <c r="C262">
         <v>1063346.989908081</v>
@@ -4828,10 +4828,10 @@
         <v>1417917.033556771</v>
       </c>
       <c r="C263">
-        <v>1236954.661729809</v>
+        <v>1236954.661729808</v>
       </c>
       <c r="D263">
-        <v>1059469.850366217</v>
+        <v>1059469.850366216</v>
       </c>
       <c r="E263">
         <v>1044451.540087026</v>
@@ -4842,16 +4842,16 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>634972.5150116711</v>
+        <v>634972.5150116713</v>
       </c>
       <c r="C264">
-        <v>573684.2746891751</v>
+        <v>573684.2746891752</v>
       </c>
       <c r="D264">
-        <v>518794.0412515692</v>
+        <v>518794.0412515691</v>
       </c>
       <c r="E264">
-        <v>556183.3983724448</v>
+        <v>556183.3983724446</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4859,16 +4859,16 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>624893.586201962</v>
+        <v>624893.5862019622</v>
       </c>
       <c r="C265">
-        <v>573684.2746891751</v>
+        <v>573684.2746891752</v>
       </c>
       <c r="D265">
-        <v>518794.0412515692</v>
+        <v>518794.0412515691</v>
       </c>
       <c r="E265">
-        <v>567088.9552032771</v>
+        <v>567088.9552032767</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4876,7 +4876,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>483301.8473530668</v>
+        <v>483301.8473530667</v>
       </c>
       <c r="C266">
         <v>573928.719304227</v>
@@ -4885,7 +4885,7 @@
         <v>625811.3857188269</v>
       </c>
       <c r="E266">
-        <v>807349.6106588598</v>
+        <v>807349.6106588601</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4893,16 +4893,16 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>735761.8031087618</v>
+        <v>735761.803108762</v>
       </c>
       <c r="C267">
-        <v>633030.9237949518</v>
+        <v>633030.9237949519</v>
       </c>
       <c r="D267">
-        <v>499579.4471311407</v>
+        <v>499579.4471311406</v>
       </c>
       <c r="E267">
-        <v>425316.7164024578</v>
+        <v>425316.7164024576</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4910,13 +4910,13 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>1034919.816156155</v>
+        <v>1034919.816156154</v>
       </c>
       <c r="C268">
-        <v>976755.0056366208</v>
+        <v>976755.0056366202</v>
       </c>
       <c r="D268">
-        <v>934550.6803873242</v>
+        <v>934550.6803873248</v>
       </c>
       <c r="E268">
         <v>1037509.065063483</v>
@@ -4933,7 +4933,7 @@
         <v>1041872.006012395</v>
       </c>
       <c r="D269">
-        <v>885363.8024722019</v>
+        <v>885363.8024722023</v>
       </c>
       <c r="E269">
         <v>839511.1518834293</v>
@@ -4947,13 +4947,13 @@
         <v>582213.726601094</v>
       </c>
       <c r="C270">
-        <v>568239.6665451244</v>
+        <v>568239.6665451241</v>
       </c>
       <c r="D270">
         <v>555421.2760750083</v>
       </c>
       <c r="E270">
-        <v>619363.0000818608</v>
+        <v>619363.000081861</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4961,7 +4961,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>200636.6805547729</v>
+        <v>200636.680554773</v>
       </c>
       <c r="C271">
         <v>170360.3708902144</v>
@@ -4995,16 +4995,16 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>492258.4776258601</v>
+        <v>492258.47762586</v>
       </c>
       <c r="C273">
-        <v>449054.8242530279</v>
+        <v>449054.8242530278</v>
       </c>
       <c r="D273">
         <v>419830.0085272617</v>
       </c>
       <c r="E273">
-        <v>452597.8877582942</v>
+        <v>452597.8877582943</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5012,16 +5012,16 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>596256.7475468165</v>
+        <v>596256.7475468164</v>
       </c>
       <c r="C274">
-        <v>489268.689111508</v>
+        <v>489268.6891115079</v>
       </c>
       <c r="D274">
         <v>400453.2389029265</v>
       </c>
       <c r="E274">
-        <v>344836.4859110813</v>
+        <v>344836.4859110814</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5029,7 +5029,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>1332031.690450456</v>
+        <v>1332031.690450457</v>
       </c>
       <c r="C275">
         <v>1412491.709567506</v>
@@ -5063,13 +5063,13 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>2211797.477255662</v>
+        <v>2211797.477255661</v>
       </c>
       <c r="C277">
         <v>1889795.614335973</v>
       </c>
       <c r="D277">
-        <v>1387864.000040077</v>
+        <v>1387864.000040078</v>
       </c>
       <c r="E277">
         <v>984122.999092397</v>
@@ -5083,7 +5083,7 @@
         <v>1650845.587545771</v>
       </c>
       <c r="C278">
-        <v>1670523.016269532</v>
+        <v>1670523.016269533</v>
       </c>
       <c r="D278">
         <v>1416998.359200979</v>
@@ -5100,10 +5100,10 @@
         <v>745634.7770219769</v>
       </c>
       <c r="C279">
-        <v>698846.9249168322</v>
+        <v>698846.9249168326</v>
       </c>
       <c r="D279">
-        <v>531671.1027190792</v>
+        <v>531671.1027190791</v>
       </c>
       <c r="E279">
         <v>399530.9198825636</v>
@@ -5117,10 +5117,10 @@
         <v>766938.6277940334</v>
       </c>
       <c r="C280">
-        <v>698846.9249168322</v>
+        <v>698846.9249168326</v>
       </c>
       <c r="D280">
-        <v>531671.1027190792</v>
+        <v>531671.1027190791</v>
       </c>
       <c r="E280">
         <v>399530.9198825636</v>
@@ -5140,7 +5140,7 @@
         <v>1197903.632515897</v>
       </c>
       <c r="E281">
-        <v>888938.8102810682</v>
+        <v>888938.8102810686</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5148,16 +5148,16 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>586192.05868656</v>
+        <v>586192.0586865599</v>
       </c>
       <c r="C282">
         <v>475841.5646640147</v>
       </c>
       <c r="D282">
-        <v>334170.9552240059</v>
+        <v>334170.9552240057</v>
       </c>
       <c r="E282">
-        <v>203239.5940355954</v>
+        <v>203239.5940355953</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5165,16 +5165,16 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>559546.9651098982</v>
+        <v>559546.9651098981</v>
       </c>
       <c r="C283">
         <v>465148.4957951605</v>
       </c>
       <c r="D283">
-        <v>343857.0698681799</v>
+        <v>343857.0698681798</v>
       </c>
       <c r="E283">
-        <v>229185.0741252459</v>
+        <v>229185.0741252458</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5182,16 +5182,16 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>458295.6095185833</v>
+        <v>458295.6095185832</v>
       </c>
       <c r="C284">
         <v>433069.2891885976</v>
       </c>
       <c r="D284">
-        <v>363229.2991565281</v>
+        <v>363229.299156528</v>
       </c>
       <c r="E284">
-        <v>294048.7743493721</v>
+        <v>294048.774349372</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5208,7 +5208,7 @@
         <v>257276.8109877853</v>
       </c>
       <c r="E285">
-        <v>173185.82440296</v>
+        <v>173185.8244029599</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5219,10 +5219,10 @@
         <v>873457.8816543157</v>
       </c>
       <c r="C286">
-        <v>720685.8913204833</v>
+        <v>720685.8913204836</v>
       </c>
       <c r="D286">
-        <v>531671.1027190792</v>
+        <v>531671.1027190791</v>
       </c>
       <c r="E286">
         <v>349589.5548972432</v>
@@ -5236,13 +5236,13 @@
         <v>6060237.565059667</v>
       </c>
       <c r="C287">
-        <v>6643096.108981757</v>
+        <v>6643096.108981756</v>
       </c>
       <c r="D287">
-        <v>6535483.718044526</v>
+        <v>6535483.718044525</v>
       </c>
       <c r="E287">
-        <v>7175373.612758159</v>
+        <v>7175373.61275816</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5253,13 +5253,13 @@
         <v>2362600.470328854</v>
       </c>
       <c r="C288">
-        <v>2649509.924783503</v>
+        <v>2649509.924783501</v>
       </c>
       <c r="D288">
         <v>2857921.602701503</v>
       </c>
       <c r="E288">
-        <v>3493821.382373797</v>
+        <v>3493821.382373799</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5267,16 +5267,16 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>87323063.52469784</v>
+        <v>87323063.52469781</v>
       </c>
       <c r="C289">
         <v>78340669.56068659</v>
       </c>
       <c r="D289">
-        <v>67651530.8978298</v>
+        <v>67651530.89782982</v>
       </c>
       <c r="E289">
-        <v>65313025.83480828</v>
+        <v>65313025.8348083</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5287,10 +5287,10 @@
         <v>5026925.169173917</v>
       </c>
       <c r="C290">
-        <v>5898848.827062639</v>
+        <v>5898848.827062638</v>
       </c>
       <c r="D290">
-        <v>6718477.262149773</v>
+        <v>6718477.262149772</v>
       </c>
       <c r="E290">
         <v>8638587.055359824</v>
@@ -5321,13 +5321,13 @@
         <v>642094.6828502777</v>
       </c>
       <c r="C292">
-        <v>630774.3913506139</v>
+        <v>630774.3913506137</v>
       </c>
       <c r="D292">
-        <v>588578.9944262051</v>
+        <v>588578.9944262049</v>
       </c>
       <c r="E292">
-        <v>599232.4441967743</v>
+        <v>599232.4441967744</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5338,13 +5338,13 @@
         <v>2849875.181439964</v>
       </c>
       <c r="C293">
-        <v>2967077.079863935</v>
+        <v>2967077.079863934</v>
       </c>
       <c r="D293">
         <v>2956274.593889564</v>
       </c>
       <c r="E293">
-        <v>3374849.83071355</v>
+        <v>3374849.830713551</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5355,13 +5355,13 @@
         <v>832344.95925036</v>
       </c>
       <c r="C294">
-        <v>700860.4348340154</v>
+        <v>700860.4348340152</v>
       </c>
       <c r="D294">
-        <v>544980.5503946344</v>
+        <v>544980.5503946341</v>
       </c>
       <c r="E294">
-        <v>437900.6322976427</v>
+        <v>437900.6322976429</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5369,16 +5369,16 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>6816475.308302148</v>
+        <v>6816475.308302149</v>
       </c>
       <c r="C295">
-        <v>6878525.701444387</v>
+        <v>6878525.701444385</v>
       </c>
       <c r="D295">
         <v>6667612.703666435</v>
       </c>
       <c r="E295">
-        <v>7324012.409718613</v>
+        <v>7324012.40971861</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5386,16 +5386,16 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>2909362.839474061</v>
+        <v>2909362.839474062</v>
       </c>
       <c r="C296">
-        <v>2839248.064925352</v>
+        <v>2839248.064925351</v>
       </c>
       <c r="D296">
         <v>2781675.764014664</v>
       </c>
       <c r="E296">
-        <v>3138093.973600027</v>
+        <v>3138093.973600026</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5406,13 +5406,13 @@
         <v>1662581.130328505</v>
       </c>
       <c r="C297">
-        <v>1967559.828486533</v>
+        <v>1967559.828486532</v>
       </c>
       <c r="D297">
         <v>2728727.318891566</v>
       </c>
       <c r="E297">
-        <v>4206363.383837163</v>
+        <v>4206363.383837162</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5420,16 +5420,16 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>6303362.472470555</v>
+        <v>6303362.472470553</v>
       </c>
       <c r="C298">
-        <v>6939958.879958548</v>
+        <v>6939958.879958547</v>
       </c>
       <c r="D298">
-        <v>7161610.251218227</v>
+        <v>7161610.251218225</v>
       </c>
       <c r="E298">
-        <v>8423696.479940303</v>
+        <v>8423696.479940305</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5437,13 +5437,13 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>6960713.126996336</v>
+        <v>6960713.126996333</v>
       </c>
       <c r="C299">
-        <v>8214163.592057901</v>
+        <v>8214163.592057898</v>
       </c>
       <c r="D299">
-        <v>8749284.901677009</v>
+        <v>8749284.901677011</v>
       </c>
       <c r="E299">
         <v>10535468.40978631</v>
@@ -5454,16 +5454,16 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>7918540.178506687</v>
+        <v>7918540.178506688</v>
       </c>
       <c r="C300">
-        <v>7250867.548531121</v>
+        <v>7250867.548531118</v>
       </c>
       <c r="D300">
         <v>6403174.806070599</v>
       </c>
       <c r="E300">
-        <v>6298650.672358007</v>
+        <v>6298650.672358005</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5471,16 +5471,16 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>2734363.570934268</v>
+        <v>2734363.570934269</v>
       </c>
       <c r="C301">
-        <v>2755122.196334971</v>
+        <v>2755122.19633497</v>
       </c>
       <c r="D301">
         <v>2801979.966671705</v>
       </c>
       <c r="E301">
-        <v>3273551.267424489</v>
+        <v>3273551.267424487</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5488,16 +5488,16 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>9211217.366647515</v>
+        <v>9211217.366647514</v>
       </c>
       <c r="C302">
-        <v>7751347.107217384</v>
+        <v>7751347.107217382</v>
       </c>
       <c r="D302">
-        <v>6483490.111957379</v>
+        <v>6483490.111957377</v>
       </c>
       <c r="E302">
-        <v>6003930.536458531</v>
+        <v>6003930.536458532</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5505,16 +5505,16 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>9211217.366647515</v>
+        <v>9211217.366647514</v>
       </c>
       <c r="C303">
-        <v>7751347.107217384</v>
+        <v>7751347.107217382</v>
       </c>
       <c r="D303">
-        <v>6483490.111957379</v>
+        <v>6483490.111957377</v>
       </c>
       <c r="E303">
-        <v>6003930.536458531</v>
+        <v>6003930.536458532</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5525,7 +5525,7 @@
         <v>1313491.284202049</v>
       </c>
       <c r="C304">
-        <v>1264114.95955887</v>
+        <v>1264114.959558869</v>
       </c>
       <c r="D304">
         <v>1135693.374223945</v>
@@ -5545,7 +5545,7 @@
         <v>1106100.589614011</v>
       </c>
       <c r="D305">
-        <v>1186545.316353375</v>
+        <v>1186545.316353376</v>
       </c>
       <c r="E305">
         <v>1457408.894515481</v>
@@ -5559,10 +5559,10 @@
         <v>472846.0393518608</v>
       </c>
       <c r="C306">
-        <v>497966.0943474184</v>
+        <v>497966.0943474185</v>
       </c>
       <c r="D306">
-        <v>545332.0107648051</v>
+        <v>545332.0107648054</v>
       </c>
       <c r="E306">
         <v>656482.5918498639</v>
@@ -5593,10 +5593,10 @@
         <v>343888.0286195351</v>
       </c>
       <c r="C308">
-        <v>456468.9198184668</v>
+        <v>456468.9198184669</v>
       </c>
       <c r="D308">
-        <v>565529.4926449831</v>
+        <v>565529.4926449833</v>
       </c>
       <c r="E308">
         <v>769669.2456170818</v>
@@ -5610,10 +5610,10 @@
         <v>451353.0375631398</v>
       </c>
       <c r="C309">
-        <v>497966.0943474184</v>
+        <v>497966.0943474185</v>
       </c>
       <c r="D309">
-        <v>545332.0107648051</v>
+        <v>545332.0107648054</v>
       </c>
       <c r="E309">
         <v>679119.9226033074</v>
@@ -5627,10 +5627,10 @@
         <v>1404705.95671608</v>
       </c>
       <c r="C310">
-        <v>1211443.502910584</v>
+        <v>1211443.502910583</v>
       </c>
       <c r="D310">
-        <v>1101792.079470991</v>
+        <v>1101792.079470992</v>
       </c>
       <c r="E310">
         <v>1139768.494428774</v>
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>286559.6618761609</v>
+        <v>286559.661876161</v>
       </c>
       <c r="C311">
         <v>246962.6968511319</v>
       </c>
       <c r="D311">
-        <v>207712.9983292574</v>
+        <v>207712.9983292575</v>
       </c>
       <c r="E311">
-        <v>183108.1235661844</v>
+        <v>183108.1235661843</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,16 +5658,16 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>334319.6055221877</v>
+        <v>334319.6055221878</v>
       </c>
       <c r="C312">
-        <v>262397.8654043277</v>
+        <v>262397.8654043276</v>
       </c>
       <c r="D312">
-        <v>200550.4811454899</v>
+        <v>200550.48114549</v>
       </c>
       <c r="E312">
-        <v>147895.0228803797</v>
+        <v>147895.0228803796</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5675,16 +5675,16 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>326359.6149145166</v>
+        <v>326359.6149145167</v>
       </c>
       <c r="C313">
-        <v>262397.8654043277</v>
+        <v>262397.8654043276</v>
       </c>
       <c r="D313">
-        <v>200550.4811454899</v>
+        <v>200550.48114549</v>
       </c>
       <c r="E313">
-        <v>147895.0228803797</v>
+        <v>147895.0228803796</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5692,13 +5692,13 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>270639.6806608186</v>
+        <v>270639.6806608187</v>
       </c>
       <c r="C314">
         <v>246962.6968511319</v>
       </c>
       <c r="D314">
-        <v>214875.5155130249</v>
+        <v>214875.515513025</v>
       </c>
       <c r="E314">
         <v>197193.3638405062</v>
@@ -5712,10 +5712,10 @@
         <v>18811716.96570279</v>
       </c>
       <c r="C315">
-        <v>17436662.85427584</v>
+        <v>17436662.85427585</v>
       </c>
       <c r="D315">
-        <v>16427324.51515675</v>
+        <v>16427324.51515674</v>
       </c>
       <c r="E315">
         <v>18184139.79337316</v>
@@ -5729,10 +5729,10 @@
         <v>32032765.79896688</v>
       </c>
       <c r="C316">
-        <v>30591097.35472601</v>
+        <v>30591097.35472599</v>
       </c>
       <c r="D316">
-        <v>30080791.65396573</v>
+        <v>30080791.65396575</v>
       </c>
       <c r="E316">
         <v>35138954.18465158</v>
@@ -5743,16 +5743,16 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>9386253.917915948</v>
+        <v>9386253.917915944</v>
       </c>
       <c r="C317">
-        <v>9791545.661497876</v>
+        <v>9791545.66149788</v>
       </c>
       <c r="D317">
         <v>10215866.90738892</v>
       </c>
       <c r="E317">
-        <v>12660554.49977391</v>
+        <v>12660554.4997739</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5760,13 +5760,13 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>4547311.234328507</v>
+        <v>4547311.234328505</v>
       </c>
       <c r="C318">
         <v>4887965.112167146</v>
       </c>
       <c r="D318">
-        <v>5041989.441757443</v>
+        <v>5041989.441757444</v>
       </c>
       <c r="E318">
         <v>6112671.61898988</v>
@@ -5794,13 +5794,13 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>3156162.740632005</v>
+        <v>3156162.740632002</v>
       </c>
       <c r="C320">
-        <v>3234652.587163588</v>
+        <v>3234652.587163589</v>
       </c>
       <c r="D320">
-        <v>3161053.998076745</v>
+        <v>3161053.998076744</v>
       </c>
       <c r="E320">
         <v>3626821.306125308</v>
@@ -5811,7 +5811,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>15367910.15434407</v>
+        <v>15367910.15434406</v>
       </c>
       <c r="C321">
         <v>16020927.1899505</v>
@@ -5837,7 +5837,7 @@
         <v>7195832.980585525</v>
       </c>
       <c r="E322">
-        <v>7141009.703659673</v>
+        <v>7141009.703659674</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5845,13 +5845,13 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>2551181.5310837</v>
+        <v>2551181.531083699</v>
       </c>
       <c r="C323">
         <v>2837992.212815044</v>
       </c>
       <c r="D323">
-        <v>3111424.758631956</v>
+        <v>3111424.758631957</v>
       </c>
       <c r="E323">
         <v>4037937.89570462</v>
@@ -5862,7 +5862,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>2809529.027902303</v>
+        <v>2809529.027902301</v>
       </c>
       <c r="C324">
         <v>2932591.953242212</v>
@@ -5879,16 +5879,16 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>2357420.908469748</v>
+        <v>2357420.908469747</v>
       </c>
       <c r="C325">
-        <v>2711859.225578819</v>
+        <v>2711859.22557882</v>
       </c>
       <c r="D325">
-        <v>3142230.944360985</v>
+        <v>3142230.944360986</v>
       </c>
       <c r="E325">
-        <v>4323809.605135035</v>
+        <v>4323809.605135036</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5896,7 +5896,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>5229560.473850856</v>
+        <v>5229560.473850853</v>
       </c>
       <c r="C326">
         <v>6450828.307364443</v>
@@ -5905,7 +5905,7 @@
         <v>7399012.306663483</v>
       </c>
       <c r="E326">
-        <v>9886610.987227835</v>
+        <v>9886610.987227827</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5919,10 +5919,10 @@
         <v>3011286.206877834</v>
       </c>
       <c r="D327">
-        <v>3200982.877616999</v>
+        <v>3200982.877617</v>
       </c>
       <c r="E327">
-        <v>4023776.749054592</v>
+        <v>4023776.749054593</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5936,10 +5936,10 @@
         <v>3011286.206877834</v>
       </c>
       <c r="D328">
-        <v>3096032.619334474</v>
+        <v>3096032.619334475</v>
       </c>
       <c r="E328">
-        <v>3840877.805915746</v>
+        <v>3840877.805915748</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5947,16 +5947,16 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>25750.17643359589</v>
+        <v>25750.17643359588</v>
       </c>
       <c r="C329">
-        <v>25043.1239809645</v>
+        <v>25043.12398096452</v>
       </c>
       <c r="D329">
         <v>24461.2281401238</v>
       </c>
       <c r="E329">
-        <v>28459.94583515263</v>
+        <v>28459.94583515261</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5964,16 +5964,16 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>3893999.794489927</v>
+        <v>3893999.794489928</v>
       </c>
       <c r="C330">
         <v>3360810.498747583</v>
       </c>
       <c r="D330">
-        <v>2859894.538198794</v>
+        <v>2859894.538198795</v>
       </c>
       <c r="E330">
-        <v>2804450.461462291</v>
+        <v>2804450.461462292</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5987,10 +5987,10 @@
         <v>3199491.594807699</v>
       </c>
       <c r="D331">
-        <v>3017319.925622581</v>
+        <v>3017319.925622582</v>
       </c>
       <c r="E331">
-        <v>3322664.133689019</v>
+        <v>3322664.13368902</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,16 +5998,16 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>7474517.871950865</v>
+        <v>7474517.871950869</v>
       </c>
       <c r="C332">
-        <v>7589230.810965984</v>
+        <v>7589230.81096598</v>
       </c>
       <c r="D332">
-        <v>7849383.988993631</v>
+        <v>7849383.988993634</v>
       </c>
       <c r="E332">
-        <v>9595691.785532458</v>
+        <v>9595691.785532456</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6015,16 +6015,16 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>6123181.739214115</v>
+        <v>6123181.739214111</v>
       </c>
       <c r="C333">
-        <v>6587158.285333049</v>
+        <v>6587158.28533305</v>
       </c>
       <c r="D333">
-        <v>6862660.684866349</v>
+        <v>6862660.684866353</v>
       </c>
       <c r="E333">
-        <v>8408237.422331585</v>
+        <v>8408237.422331588</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6035,13 +6035,13 @@
         <v>12456536.39186243</v>
       </c>
       <c r="C334">
-        <v>12646851.5930363</v>
+        <v>12646851.59303629</v>
       </c>
       <c r="D334">
         <v>12884640.46334603</v>
       </c>
       <c r="E334">
-        <v>15409764.61455128</v>
+        <v>15409764.61455129</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6052,13 +6052,13 @@
         <v>5127905.519876962</v>
       </c>
       <c r="C335">
-        <v>5747383.374753658</v>
+        <v>5747383.374753655</v>
       </c>
       <c r="D335">
-        <v>6803660.165687444</v>
+        <v>6803660.165687445</v>
       </c>
       <c r="E335">
-        <v>9330188.354577649</v>
+        <v>9330188.354577646</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6069,10 +6069,10 @@
         <v>5171307.111110969</v>
       </c>
       <c r="C336">
-        <v>4610813.025637334</v>
+        <v>4610813.025637336</v>
       </c>
       <c r="D336">
-        <v>4220002.72774516</v>
+        <v>4220002.727745161</v>
       </c>
       <c r="E336">
         <v>4546215.657457163</v>
@@ -6083,7 +6083,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>3930446.465748231</v>
+        <v>3930446.465748232</v>
       </c>
       <c r="C337">
         <v>4283850.738058073</v>
@@ -6103,13 +6103,13 @@
         <v>2934537.006197079</v>
       </c>
       <c r="C338">
-        <v>3390511.326990241</v>
+        <v>3390511.326990242</v>
       </c>
       <c r="D338">
-        <v>3350891.727016424</v>
+        <v>3350891.727016423</v>
       </c>
       <c r="E338">
-        <v>3184302.726476197</v>
+        <v>3184302.726476196</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6117,16 +6117,16 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>3979577.046570084</v>
+        <v>3979577.046570085</v>
       </c>
       <c r="C339">
-        <v>4245373.03681803</v>
+        <v>4245373.036818031</v>
       </c>
       <c r="D339">
         <v>3714983.332891971</v>
       </c>
       <c r="E339">
-        <v>3079150.098089531</v>
+        <v>3079150.09808953</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6134,7 +6134,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>1885042.679896013</v>
+        <v>1885042.679896014</v>
       </c>
       <c r="C340">
         <v>1704434.520726992</v>
@@ -6143,7 +6143,7 @@
         <v>1288450.774084142</v>
       </c>
       <c r="E340">
-        <v>906893.8917260433</v>
+        <v>906893.8917260437</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6154,7 +6154,7 @@
         <v>1346459.057068581</v>
       </c>
       <c r="C341">
-        <v>1506969.545764719</v>
+        <v>1506969.545764718</v>
       </c>
       <c r="D341">
         <v>1412852.917788817</v>
@@ -6168,7 +6168,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>378293.7954670476</v>
+        <v>378293.7954670475</v>
       </c>
       <c r="C342">
         <v>338832.479595089</v>
@@ -6185,10 +6185,10 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>368069.6388328031</v>
+        <v>368069.638832803</v>
       </c>
       <c r="C343">
-        <v>328243.9646077425</v>
+        <v>328243.9646077424</v>
       </c>
       <c r="D343">
         <v>254184.7662655889</v>
@@ -6205,13 +6205,13 @@
         <v>2044623.012585623</v>
       </c>
       <c r="C344">
-        <v>1777184.774660462</v>
+        <v>1777184.774660461</v>
       </c>
       <c r="D344">
         <v>1252907.304454234</v>
       </c>
       <c r="E344">
-        <v>791732.7626179743</v>
+        <v>791732.7626179747</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6270,13 +6270,13 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>556661.2966394802</v>
+        <v>556661.29663948</v>
       </c>
       <c r="C348">
-        <v>560186.9613416912</v>
+        <v>560186.961341691</v>
       </c>
       <c r="D348">
-        <v>464628.3848631962</v>
+        <v>464628.3848631963</v>
       </c>
       <c r="E348">
         <v>335044.7573821031</v>
@@ -6290,13 +6290,13 @@
         <v>654077.0235513891</v>
       </c>
       <c r="C349">
-        <v>604412.2477634037</v>
+        <v>604412.2477634035</v>
       </c>
       <c r="D349">
-        <v>439513.3370327532</v>
+        <v>439513.3370327533</v>
       </c>
       <c r="E349">
-        <v>275919.211961732</v>
+        <v>275919.2119617319</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6307,13 +6307,13 @@
         <v>654077.0235513891</v>
       </c>
       <c r="C350">
-        <v>604412.2477634037</v>
+        <v>604412.2477634035</v>
       </c>
       <c r="D350">
-        <v>439513.3370327532</v>
+        <v>439513.3370327533</v>
       </c>
       <c r="E350">
-        <v>275919.211961732</v>
+        <v>275919.2119617319</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6321,16 +6321,16 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>491616.0323194088</v>
+        <v>491616.0323194089</v>
       </c>
       <c r="C351">
-        <v>472971.6486522135</v>
+        <v>472971.6486522136</v>
       </c>
       <c r="D351">
         <v>377587.6806037327</v>
       </c>
       <c r="E351">
-        <v>280283.6285102</v>
+        <v>280283.6285101999</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6338,16 +6338,16 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>588183.4672392927</v>
+        <v>588183.4672392928</v>
       </c>
       <c r="C352">
-        <v>504806.2788499586</v>
+        <v>504806.2788499587</v>
       </c>
       <c r="D352">
         <v>357921.6555722883</v>
       </c>
       <c r="E352">
-        <v>219072.2613642943</v>
+        <v>219072.2613642942</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6355,16 +6355,16 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>3821544.815900988</v>
+        <v>3821544.815900987</v>
       </c>
       <c r="C353">
         <v>4218568.533285368</v>
       </c>
       <c r="D353">
-        <v>3634559.567678327</v>
+        <v>3634559.567678328</v>
       </c>
       <c r="E353">
-        <v>2810610.322161186</v>
+        <v>2810610.322161185</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6375,7 +6375,7 @@
         <v>5688085.389277833</v>
       </c>
       <c r="C354">
-        <v>5194202.788199412</v>
+        <v>5194202.788199411</v>
       </c>
       <c r="D354">
         <v>3721587.322294151</v>
@@ -6389,13 +6389,13 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>5076380.427092358</v>
+        <v>5076380.427092357</v>
       </c>
       <c r="C355">
         <v>4624200.123024346</v>
       </c>
       <c r="D355">
-        <v>3337504.218396925</v>
+        <v>3337504.218396926</v>
       </c>
       <c r="E355">
         <v>2052847.735304003</v>
@@ -6406,10 +6406,10 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>882942.119865545</v>
+        <v>882942.1198655453</v>
       </c>
       <c r="C356">
-        <v>880213.6075035121</v>
+        <v>880213.6075035118</v>
       </c>
       <c r="D356">
         <v>688308.9262885288</v>
@@ -6423,16 +6423,16 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>1025770.992196736</v>
+        <v>1025770.992196737</v>
       </c>
       <c r="C357">
-        <v>935226.9579724816</v>
+        <v>935226.9579724813</v>
       </c>
       <c r="D357">
         <v>653310.1673247053</v>
       </c>
       <c r="E357">
-        <v>388856.4766482231</v>
+        <v>388856.4766482232</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6443,13 +6443,13 @@
         <v>1012786.549257537</v>
       </c>
       <c r="C358">
-        <v>935226.9579724816</v>
+        <v>935226.9579724813</v>
       </c>
       <c r="D358">
         <v>653310.1673247053</v>
       </c>
       <c r="E358">
-        <v>397899.6505237632</v>
+        <v>397899.6505237633</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6474,7 +6474,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>310076.6870634837</v>
+        <v>310076.6870634838</v>
       </c>
       <c r="C360">
         <v>256427.5930680284</v>
@@ -6491,16 +6491,16 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>8266537.588490222</v>
+        <v>8266537.588490224</v>
       </c>
       <c r="C361">
-        <v>8170800.97162521</v>
+        <v>8170800.971625208</v>
       </c>
       <c r="D361">
-        <v>7732762.917300968</v>
+        <v>7732762.917300967</v>
       </c>
       <c r="E361">
-        <v>8591769.530465463</v>
+        <v>8591769.530465458</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6508,13 +6508,13 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>9121155.537812812</v>
+        <v>9121155.537812818</v>
       </c>
       <c r="C362">
         <v>7232201.005701693</v>
       </c>
       <c r="D362">
-        <v>5733109.934431948</v>
+        <v>5733109.934431947</v>
       </c>
       <c r="E362">
         <v>5094106.142741677</v>
@@ -6528,13 +6528,13 @@
         <v>746185.5296978797</v>
       </c>
       <c r="C363">
-        <v>721939.3435672943</v>
+        <v>721939.3435672942</v>
       </c>
       <c r="D363">
-        <v>706108.635812466</v>
+        <v>706108.6358124659</v>
       </c>
       <c r="E363">
-        <v>789122.0103822518</v>
+        <v>789122.0103822517</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6545,13 +6545,13 @@
         <v>1521771.410584163</v>
       </c>
       <c r="C364">
-        <v>1443885.69267958</v>
+        <v>1443885.692679579</v>
       </c>
       <c r="D364">
-        <v>1339180.879643657</v>
+        <v>1339180.879643658</v>
       </c>
       <c r="E364">
-        <v>1408101.32272333</v>
+        <v>1408101.322723331</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6576,10 +6576,10 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>383794.2029666835</v>
+        <v>383794.2029666837</v>
       </c>
       <c r="C366">
-        <v>331542.3723936121</v>
+        <v>331542.372393612</v>
       </c>
       <c r="D366">
         <v>273373.7875662277</v>
@@ -6593,16 +6593,16 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>426438.003296315</v>
+        <v>426438.0032963152</v>
       </c>
       <c r="C367">
-        <v>339628.7717202856</v>
+        <v>339628.7717202855</v>
       </c>
       <c r="D367">
         <v>265780.0712449435</v>
       </c>
       <c r="E367">
-        <v>217190.7928188284</v>
+        <v>217190.7928188283</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6613,10 +6613,10 @@
         <v>450159.4926071133</v>
       </c>
       <c r="C368">
-        <v>391771.7926747837</v>
+        <v>391771.7926747839</v>
       </c>
       <c r="D368">
-        <v>343680.3075639835</v>
+        <v>343680.3075639836</v>
       </c>
       <c r="E368">
         <v>315625.9989636977</v>
@@ -6627,10 +6627,10 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>469081.8036259465</v>
+        <v>469081.8036259467</v>
       </c>
       <c r="C369">
-        <v>347715.1710469591</v>
+        <v>347715.1710469589</v>
       </c>
       <c r="D369">
         <v>258186.3549236594</v>
@@ -6647,10 +6647,10 @@
         <v>272848.3265423157</v>
       </c>
       <c r="C370">
-        <v>253195.0210156175</v>
+        <v>253195.0210156174</v>
       </c>
       <c r="D370">
-        <v>219850.4429191986</v>
+        <v>219850.4429191987</v>
       </c>
       <c r="E370">
         <v>209611.8608009779</v>
@@ -6681,13 +6681,13 @@
         <v>315480.8775645525</v>
       </c>
       <c r="C372">
-        <v>261362.6023387019</v>
+        <v>261362.6023387018</v>
       </c>
       <c r="D372">
         <v>212269.3931633642</v>
       </c>
       <c r="E372">
-        <v>170794.8495415376</v>
+        <v>170794.8495415375</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6695,16 +6695,16 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>3729438.27823169</v>
+        <v>3729438.278231689</v>
       </c>
       <c r="C373">
-        <v>4060926.011870463</v>
+        <v>4060926.011870462</v>
       </c>
       <c r="D373">
-        <v>3746488.410202147</v>
+        <v>3746488.410202148</v>
       </c>
       <c r="E373">
-        <v>3414374.788434308</v>
+        <v>3414374.788434309</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6715,10 +6715,10 @@
         <v>2737935.394904491</v>
       </c>
       <c r="C374">
-        <v>3123106.886670865</v>
+        <v>3123106.886670864</v>
       </c>
       <c r="D374">
-        <v>2855739.876798871</v>
+        <v>2855739.876798872</v>
       </c>
       <c r="E374">
         <v>2629127.468474906</v>
@@ -6729,16 +6729,16 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>5153041.061857766</v>
+        <v>5153041.061857764</v>
       </c>
       <c r="C375">
-        <v>4661777.309545174</v>
+        <v>4661777.309545173</v>
       </c>
       <c r="D375">
-        <v>3420706.809315003</v>
+        <v>3420706.809315005</v>
       </c>
       <c r="E375">
-        <v>2344432.458418027</v>
+        <v>2344432.458418028</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6746,7 +6746,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>3461692.373372771</v>
+        <v>3461692.373372773</v>
       </c>
       <c r="C376">
         <v>3058571.01411709</v>
@@ -6763,7 +6763,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>3461692.373372771</v>
+        <v>3461692.373372773</v>
       </c>
       <c r="C377">
         <v>3058571.01411709</v>
@@ -6789,7 +6789,7 @@
         <v>2177055.895985015</v>
       </c>
       <c r="E378">
-        <v>1974298.928513493</v>
+        <v>1974298.928513492</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6800,13 +6800,13 @@
         <v>2210208.96500914</v>
       </c>
       <c r="C379">
-        <v>2482626.487134243</v>
+        <v>2482626.487134242</v>
       </c>
       <c r="D379">
         <v>2198826.454944865</v>
       </c>
       <c r="E379">
-        <v>1954751.414369795</v>
+        <v>1954751.414369794</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6840,7 +6840,7 @@
         <v>2177055.895985015</v>
       </c>
       <c r="E381">
-        <v>1974298.928513493</v>
+        <v>1974298.928513492</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6851,13 +6851,13 @@
         <v>1536838.203283858</v>
       </c>
       <c r="C382">
-        <v>1414263.285333003</v>
+        <v>1414263.285333002</v>
       </c>
       <c r="D382">
         <v>1061397.717368752</v>
       </c>
       <c r="E382">
-        <v>733057.2021992411</v>
+        <v>733057.2021992413</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6865,16 +6865,16 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>4241346.100737299</v>
+        <v>4241346.100737298</v>
       </c>
       <c r="C383">
-        <v>4497304.279109476</v>
+        <v>4497304.279109474</v>
       </c>
       <c r="D383">
-        <v>4128254.99639435</v>
+        <v>4128254.996394351</v>
       </c>
       <c r="E383">
-        <v>4067805.009615506</v>
+        <v>4067805.009615504</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6882,16 +6882,16 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>6669786.146074753</v>
+        <v>6669786.146074755</v>
       </c>
       <c r="C384">
-        <v>5571499.241669046</v>
+        <v>5571499.241669045</v>
       </c>
       <c r="D384">
         <v>4215634.082553688</v>
       </c>
       <c r="E384">
-        <v>3273467.034227617</v>
+        <v>3273467.034227618</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6899,16 +6899,16 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>982054.5265605247</v>
+        <v>982054.5265605245</v>
       </c>
       <c r="C385">
         <v>1031745.82335719</v>
       </c>
       <c r="D385">
-        <v>958255.4359720725</v>
+        <v>958255.4359720732</v>
       </c>
       <c r="E385">
-        <v>976937.1536658485</v>
+        <v>976937.1536658484</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6922,7 +6922,7 @@
         <v>1160770.699046968</v>
       </c>
       <c r="D386">
-        <v>969674.245721005</v>
+        <v>969674.2457210054</v>
       </c>
       <c r="E386">
         <v>872050.4850938881</v>
@@ -6939,7 +6939,7 @@
         <v>1204299.600261229</v>
       </c>
       <c r="D387">
-        <v>943816.2658351115</v>
+        <v>943816.265835112</v>
       </c>
       <c r="E387">
         <v>758304.7696468593</v>
@@ -6956,7 +6956,7 @@
         <v>1588761.529099804</v>
       </c>
       <c r="D388">
-        <v>1412387.665745519</v>
+        <v>1412387.66574552</v>
       </c>
       <c r="E388">
         <v>1148692.582390798</v>
@@ -6976,7 +6976,7 @@
         <v>110023.9661678171</v>
       </c>
       <c r="E389">
-        <v>75539.35268617973</v>
+        <v>75539.35268617976</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -6993,7 +6993,7 @@
         <v>110023.9661678171</v>
       </c>
       <c r="E390">
-        <v>72105.74574589884</v>
+        <v>72105.74574589886</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7007,7 +7007,7 @@
         <v>1588761.529099804</v>
       </c>
       <c r="D391">
-        <v>1412387.665745519</v>
+        <v>1412387.66574552</v>
       </c>
       <c r="E391">
         <v>1148692.582390798</v>
@@ -7027,7 +7027,7 @@
         <v>106094.5388046808</v>
       </c>
       <c r="E392">
-        <v>61804.92492505614</v>
+        <v>61804.92492505616</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7035,10 +7035,10 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>344766.6955913417</v>
+        <v>344766.6955913416</v>
       </c>
       <c r="C393">
-        <v>312443.0599086677</v>
+        <v>312443.0599086676</v>
       </c>
       <c r="D393">
         <v>249580.7965848952</v>
@@ -7055,7 +7055,7 @@
         <v>327866.3673760798</v>
       </c>
       <c r="C394">
-        <v>305260.4608303076</v>
+        <v>305260.4608303074</v>
       </c>
       <c r="D394">
         <v>252953.5100522587</v>
@@ -7078,7 +7078,7 @@
         <v>248437.0070100331</v>
       </c>
       <c r="E395">
-        <v>220606.9922388221</v>
+        <v>220606.992238822</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7086,7 +7086,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>318976.2657440503</v>
+        <v>318976.2657440504</v>
       </c>
       <c r="C396">
         <v>291729.5453418271</v>
@@ -7103,7 +7103,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>144273.9307967407</v>
+        <v>144273.9307967408</v>
       </c>
       <c r="C397">
         <v>135483.2995719708</v>
@@ -7120,7 +7120,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>144273.9307967407</v>
+        <v>144273.9307967408</v>
       </c>
       <c r="C398">
         <v>135483.2995719708</v>
@@ -7143,7 +7143,7 @@
         <v>1001391.813128118</v>
       </c>
       <c r="D399">
-        <v>903493.9841576748</v>
+        <v>903493.9841576749</v>
       </c>
       <c r="E399">
         <v>821605.5187439817</v>
@@ -7163,7 +7163,7 @@
         <v>687285.6111447286</v>
       </c>
       <c r="E400">
-        <v>521063.6431892894</v>
+        <v>521063.6431892895</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7171,13 +7171,13 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>1142611.58233886</v>
+        <v>1142611.582338861</v>
       </c>
       <c r="C401">
         <v>1040662.080309613</v>
       </c>
       <c r="D401">
-        <v>874112.0659736855</v>
+        <v>874112.0659736856</v>
       </c>
       <c r="E401">
         <v>726804.88196583</v>
@@ -7191,10 +7191,10 @@
         <v>108300.6502452374</v>
       </c>
       <c r="C402">
-        <v>94506.00149965944</v>
+        <v>94506.00149965941</v>
       </c>
       <c r="D402">
-        <v>80015.01790341306</v>
+        <v>80015.01790341304</v>
       </c>
       <c r="E402">
         <v>68846.02609705822</v>
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>988081.8920108033</v>
+        <v>988081.8920108035</v>
       </c>
       <c r="C403">
         <v>857238.7608453425</v>
       </c>
       <c r="D403">
-        <v>700895.2272070005</v>
+        <v>700895.2272070004</v>
       </c>
       <c r="E403">
-        <v>556886.768658553</v>
+        <v>556886.7686585531</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7231,7 +7231,7 @@
         <v>161543.8558164</v>
       </c>
       <c r="E404">
-        <v>131054.0580053131</v>
+        <v>131054.0580053132</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7242,7 +7242,7 @@
         <v>224857.385357949</v>
       </c>
       <c r="C405">
-        <v>194937.6112574219</v>
+        <v>194937.611257422</v>
       </c>
       <c r="D405">
         <v>155774.4323943857</v>
@@ -7265,7 +7265,7 @@
         <v>161543.8558164</v>
       </c>
       <c r="E406">
-        <v>131054.0580053131</v>
+        <v>131054.0580053132</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7276,7 +7276,7 @@
         <v>161691.4563944644</v>
       </c>
       <c r="C407">
-        <v>160404.2586463156</v>
+        <v>160404.2586463157</v>
       </c>
       <c r="D407">
         <v>148668.9672183249</v>
@@ -7293,7 +7293,7 @@
         <v>210455.5464181918</v>
       </c>
       <c r="C408">
-        <v>175927.2514185397</v>
+        <v>175927.2514185398</v>
       </c>
       <c r="D408">
         <v>139077.4209461749</v>
@@ -7324,16 +7324,16 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>985670.3822267031</v>
+        <v>985670.382226703</v>
       </c>
       <c r="C410">
-        <v>959309.4591467378</v>
+        <v>959309.4591467381</v>
       </c>
       <c r="D410">
-        <v>896219.2250044403</v>
+        <v>896219.2250044399</v>
       </c>
       <c r="E410">
-        <v>895692.926096292</v>
+        <v>895692.9260962922</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7341,7 +7341,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>199265.1206059119</v>
+        <v>199265.1206059118</v>
       </c>
       <c r="C411">
         <v>244430.0542163824</v>
@@ -7350,7 +7350,7 @@
         <v>290181.0224078242</v>
       </c>
       <c r="E411">
-        <v>361370.4446909782</v>
+        <v>361370.444690978</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7358,13 +7358,13 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>341597.3496101347</v>
+        <v>341597.3496101346</v>
       </c>
       <c r="C412">
         <v>299772.7080012237</v>
       </c>
       <c r="D412">
-        <v>259863.6021562605</v>
+        <v>259863.6021562604</v>
       </c>
       <c r="E412">
         <v>235108.4820881062</v>
@@ -7375,16 +7375,16 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>849014.1917951275</v>
+        <v>849014.1917951272</v>
       </c>
       <c r="C413">
         <v>726455.6202647429</v>
       </c>
       <c r="D413">
-        <v>581702.5702085471</v>
+        <v>581702.5702085469</v>
       </c>
       <c r="E413">
-        <v>468746.1167839048</v>
+        <v>468746.116783905</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7392,16 +7392,16 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>985670.3822267031</v>
+        <v>985670.382226703</v>
       </c>
       <c r="C414">
-        <v>959309.4591467378</v>
+        <v>959309.4591467381</v>
       </c>
       <c r="D414">
-        <v>896219.2250044403</v>
+        <v>896219.2250044399</v>
       </c>
       <c r="E414">
-        <v>895692.926096292</v>
+        <v>895692.9260962922</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7409,16 +7409,16 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>423893.3920845825</v>
+        <v>423893.3920845827</v>
       </c>
       <c r="C415">
-        <v>380609.4209552283</v>
+        <v>380609.4209552282</v>
       </c>
       <c r="D415">
-        <v>322883.591957651</v>
+        <v>322883.5919576511</v>
       </c>
       <c r="E415">
-        <v>289522.9150142018</v>
+        <v>289522.9150142017</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7426,13 +7426,13 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>478944.4819656971</v>
+        <v>478944.4819656973</v>
       </c>
       <c r="C416">
-        <v>407412.9013041881</v>
+        <v>407412.901304188</v>
       </c>
       <c r="D416">
-        <v>312793.4797089744</v>
+        <v>312793.4797089745</v>
       </c>
       <c r="E416">
         <v>238729.4211520611</v>
@@ -7443,13 +7443,13 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>122242.5755135603</v>
+        <v>122242.5755135604</v>
       </c>
       <c r="C417">
         <v>105542.7574810557</v>
       </c>
       <c r="D417">
-        <v>89168.98020138615</v>
+        <v>89168.98020138616</v>
       </c>
       <c r="E417">
         <v>81781.5526585552</v>
@@ -7466,7 +7466,7 @@
         <v>115137.5536156971</v>
       </c>
       <c r="D418">
-        <v>84710.53119131684</v>
+        <v>84710.53119131686</v>
       </c>
       <c r="E418">
         <v>60260.09143261961</v>
@@ -7480,13 +7480,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C419">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D419">
         <v>342680.2633781012</v>
       </c>
       <c r="E419">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7497,13 +7497,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C420">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D420">
         <v>342680.2633781012</v>
       </c>
       <c r="E420">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7514,13 +7514,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C421">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D421">
         <v>342680.2633781012</v>
       </c>
       <c r="E421">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7531,13 +7531,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C422">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D422">
         <v>342680.2633781012</v>
       </c>
       <c r="E422">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7548,13 +7548,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C423">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D423">
         <v>342680.2633781012</v>
       </c>
       <c r="E423">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7565,13 +7565,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C424">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D424">
         <v>342680.2633781012</v>
       </c>
       <c r="E424">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7582,13 +7582,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C425">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D425">
         <v>342680.2633781012</v>
       </c>
       <c r="E425">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7599,13 +7599,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C426">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D426">
         <v>342680.2633781012</v>
       </c>
       <c r="E426">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7616,13 +7616,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C427">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D427">
         <v>342680.2633781012</v>
       </c>
       <c r="E427">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7633,13 +7633,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C428">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D428">
         <v>342680.2633781012</v>
       </c>
       <c r="E428">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7650,13 +7650,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C429">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D429">
         <v>342680.2633781012</v>
       </c>
       <c r="E429">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7667,13 +7667,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C430">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D430">
         <v>342680.2633781012</v>
       </c>
       <c r="E430">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7684,13 +7684,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C431">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D431">
         <v>342680.2633781012</v>
       </c>
       <c r="E431">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7701,13 +7701,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C432">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D432">
         <v>342680.2633781012</v>
       </c>
       <c r="E432">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7718,13 +7718,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C433">
-        <v>380783.6932816925</v>
+        <v>380783.6932816927</v>
       </c>
       <c r="D433">
         <v>342680.2633781012</v>
       </c>
       <c r="E433">
-        <v>341224.2905108114</v>
+        <v>341224.2905108115</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7732,13 +7732,13 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>461879.665040462</v>
+        <v>461879.6650404619</v>
       </c>
       <c r="C434">
-        <v>462518.8346951308</v>
+        <v>462518.8346951309</v>
       </c>
       <c r="D434">
-        <v>426101.0793363104</v>
+        <v>426101.0793363105</v>
       </c>
       <c r="E434">
         <v>399234.422829679</v>
@@ -7752,7 +7752,7 @@
         <v>483609.4462702295</v>
       </c>
       <c r="C435">
-        <v>398916.2501046302</v>
+        <v>398916.2501046304</v>
       </c>
       <c r="D435">
         <v>325546.2502091962</v>
@@ -7766,16 +7766,16 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>161111.0712180877</v>
+        <v>161111.0712180876</v>
       </c>
       <c r="C436">
         <v>146996.3647705128</v>
       </c>
       <c r="D436">
-        <v>121389.5069728773</v>
+        <v>121389.5069728772</v>
       </c>
       <c r="E436">
-        <v>99298.25443570167</v>
+        <v>99298.25443570169</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7786,13 +7786,13 @@
         <v>119234.8494323636</v>
       </c>
       <c r="C437">
-        <v>105775.2383406622</v>
+        <v>105775.2383406621</v>
       </c>
       <c r="D437">
-        <v>89277.79161541382</v>
+        <v>89277.79161541384</v>
       </c>
       <c r="E437">
-        <v>75905.5668258962</v>
+        <v>75905.56682589617</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7803,13 +7803,13 @@
         <v>119234.8494323636</v>
       </c>
       <c r="C438">
-        <v>105775.2383406622</v>
+        <v>105775.2383406621</v>
       </c>
       <c r="D438">
-        <v>89277.79161541382</v>
+        <v>89277.79161541384</v>
       </c>
       <c r="E438">
-        <v>75905.5668258962</v>
+        <v>75905.56682589617</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7820,13 +7820,13 @@
         <v>119234.8494323636</v>
       </c>
       <c r="C439">
-        <v>105775.2383406622</v>
+        <v>105775.2383406621</v>
       </c>
       <c r="D439">
-        <v>89277.79161541382</v>
+        <v>89277.79161541384</v>
       </c>
       <c r="E439">
-        <v>75905.5668258962</v>
+        <v>75905.56682589617</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7837,13 +7837,13 @@
         <v>119234.8494323636</v>
       </c>
       <c r="C440">
-        <v>105775.2383406622</v>
+        <v>105775.2383406621</v>
       </c>
       <c r="D440">
-        <v>89277.79161541382</v>
+        <v>89277.79161541384</v>
       </c>
       <c r="E440">
-        <v>75905.5668258962</v>
+        <v>75905.56682589617</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -7854,13 +7854,13 @@
         <v>119234.8494323636</v>
       </c>
       <c r="C441">
-        <v>105775.2383406622</v>
+        <v>105775.2383406621</v>
       </c>
       <c r="D441">
-        <v>89277.79161541382</v>
+        <v>89277.79161541384</v>
       </c>
       <c r="E441">
-        <v>75905.5668258962</v>
+        <v>75905.56682589617</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7871,13 +7871,13 @@
         <v>119234.8494323636</v>
       </c>
       <c r="C442">
-        <v>105775.2383406622</v>
+        <v>105775.2383406621</v>
       </c>
       <c r="D442">
-        <v>89277.79161541382</v>
+        <v>89277.79161541384</v>
       </c>
       <c r="E442">
-        <v>75905.5668258962</v>
+        <v>75905.56682589617</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7888,13 +7888,13 @@
         <v>119234.8494323636</v>
       </c>
       <c r="C443">
-        <v>105775.2383406622</v>
+        <v>105775.2383406621</v>
       </c>
       <c r="D443">
-        <v>89277.79161541382</v>
+        <v>89277.79161541384</v>
       </c>
       <c r="E443">
-        <v>75905.5668258962</v>
+        <v>75905.56682589617</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7905,13 +7905,13 @@
         <v>119234.8494323636</v>
       </c>
       <c r="C444">
-        <v>105775.2383406622</v>
+        <v>105775.2383406621</v>
       </c>
       <c r="D444">
-        <v>89277.79161541382</v>
+        <v>89277.79161541384</v>
       </c>
       <c r="E444">
-        <v>75905.5668258962</v>
+        <v>75905.56682589617</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7922,13 +7922,13 @@
         <v>119234.8494323636</v>
       </c>
       <c r="C445">
-        <v>105775.2383406622</v>
+        <v>105775.2383406621</v>
       </c>
       <c r="D445">
-        <v>89277.79161541382</v>
+        <v>89277.79161541384</v>
       </c>
       <c r="E445">
-        <v>75905.5668258962</v>
+        <v>75905.56682589617</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7939,13 +7939,13 @@
         <v>119234.8494323636</v>
       </c>
       <c r="C446">
-        <v>105775.2383406622</v>
+        <v>105775.2383406621</v>
       </c>
       <c r="D446">
-        <v>89277.79161541382</v>
+        <v>89277.79161541384</v>
       </c>
       <c r="E446">
-        <v>75905.5668258962</v>
+        <v>75905.56682589617</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7956,13 +7956,13 @@
         <v>119234.8494323636</v>
       </c>
       <c r="C447">
-        <v>105775.2383406622</v>
+        <v>105775.2383406621</v>
       </c>
       <c r="D447">
-        <v>89277.79161541382</v>
+        <v>89277.79161541384</v>
       </c>
       <c r="E447">
-        <v>75905.5668258962</v>
+        <v>75905.56682589617</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -7976,7 +7976,7 @@
         <v>320985.753745857</v>
       </c>
       <c r="D448">
-        <v>294851.5950852236</v>
+        <v>294851.5950852237</v>
       </c>
       <c r="E448">
         <v>323227.0819473139</v>
@@ -7993,7 +7993,7 @@
         <v>320985.753745857</v>
       </c>
       <c r="D449">
-        <v>294851.5950852236</v>
+        <v>294851.5950852237</v>
       </c>
       <c r="E449">
         <v>323227.0819473139</v>
@@ -8010,7 +8010,7 @@
         <v>320985.753745857</v>
       </c>
       <c r="D450">
-        <v>294851.5950852236</v>
+        <v>294851.5950852237</v>
       </c>
       <c r="E450">
         <v>323227.0819473139</v>
@@ -8027,7 +8027,7 @@
         <v>320985.753745857</v>
       </c>
       <c r="D451">
-        <v>294851.5950852236</v>
+        <v>294851.5950852237</v>
       </c>
       <c r="E451">
         <v>323227.0819473139</v>
@@ -8044,7 +8044,7 @@
         <v>320985.753745857</v>
       </c>
       <c r="D452">
-        <v>294851.5950852236</v>
+        <v>294851.5950852237</v>
       </c>
       <c r="E452">
         <v>323227.0819473139</v>
@@ -8061,7 +8061,7 @@
         <v>285320.6699963174</v>
       </c>
       <c r="D453">
-        <v>329540.0180364263</v>
+        <v>329540.0180364264</v>
       </c>
       <c r="E453">
         <v>456320.5862785607</v>
@@ -8072,16 +8072,16 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>470635.1422819094</v>
+        <v>470635.1422819095</v>
       </c>
       <c r="C454">
-        <v>436947.4578447196</v>
+        <v>436947.4578447199</v>
       </c>
       <c r="D454">
-        <v>405628.0254245529</v>
+        <v>405628.025424553</v>
       </c>
       <c r="E454">
-        <v>385977.9253314697</v>
+        <v>385977.9253314694</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8089,16 +8089,16 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>470635.1422819094</v>
+        <v>470635.1422819095</v>
       </c>
       <c r="C455">
-        <v>436947.4578447196</v>
+        <v>436947.4578447199</v>
       </c>
       <c r="D455">
-        <v>405628.0254245529</v>
+        <v>405628.025424553</v>
       </c>
       <c r="E455">
-        <v>385977.9253314697</v>
+        <v>385977.9253314694</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8106,16 +8106,16 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>470635.1422819094</v>
+        <v>470635.1422819095</v>
       </c>
       <c r="C456">
-        <v>436947.4578447196</v>
+        <v>436947.4578447199</v>
       </c>
       <c r="D456">
-        <v>405628.0254245529</v>
+        <v>405628.025424553</v>
       </c>
       <c r="E456">
-        <v>385977.9253314697</v>
+        <v>385977.9253314694</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8123,16 +8123,16 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>470635.1422819094</v>
+        <v>470635.1422819095</v>
       </c>
       <c r="C457">
-        <v>436947.4578447196</v>
+        <v>436947.4578447199</v>
       </c>
       <c r="D457">
-        <v>405628.0254245529</v>
+        <v>405628.025424553</v>
       </c>
       <c r="E457">
-        <v>385977.9253314697</v>
+        <v>385977.9253314694</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8140,16 +8140,16 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>470635.1422819094</v>
+        <v>470635.1422819095</v>
       </c>
       <c r="C458">
-        <v>436947.4578447196</v>
+        <v>436947.4578447199</v>
       </c>
       <c r="D458">
-        <v>405628.0254245529</v>
+        <v>405628.025424553</v>
       </c>
       <c r="E458">
-        <v>385977.9253314697</v>
+        <v>385977.9253314694</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8157,16 +8157,16 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>541230.4136241958</v>
+        <v>541230.413624196</v>
       </c>
       <c r="C459">
-        <v>471443.3097798291</v>
+        <v>471443.3097798293</v>
       </c>
       <c r="D459">
-        <v>383702.1862124149</v>
+        <v>383702.186212415</v>
       </c>
       <c r="E459">
-        <v>317864.1738023868</v>
+        <v>317864.1738023866</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8174,16 +8174,16 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>470635.1422819094</v>
+        <v>470635.1422819095</v>
       </c>
       <c r="C460">
-        <v>436947.4578447196</v>
+        <v>436947.4578447199</v>
       </c>
       <c r="D460">
-        <v>405628.0254245529</v>
+        <v>405628.025424553</v>
       </c>
       <c r="E460">
-        <v>385977.9253314697</v>
+        <v>385977.9253314694</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8191,16 +8191,16 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>470635.1422819094</v>
+        <v>470635.1422819095</v>
       </c>
       <c r="C461">
-        <v>436947.4578447196</v>
+        <v>436947.4578447199</v>
       </c>
       <c r="D461">
-        <v>405628.0254245529</v>
+        <v>405628.025424553</v>
       </c>
       <c r="E461">
-        <v>385977.9253314697</v>
+        <v>385977.9253314694</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8208,16 +8208,16 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>541230.4136241958</v>
+        <v>541230.413624196</v>
       </c>
       <c r="C462">
-        <v>471443.3097798291</v>
+        <v>471443.3097798293</v>
       </c>
       <c r="D462">
-        <v>383702.1862124149</v>
+        <v>383702.186212415</v>
       </c>
       <c r="E462">
-        <v>317864.1738023868</v>
+        <v>317864.1738023866</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8228,13 +8228,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C463">
-        <v>371717.4148702236</v>
+        <v>371717.4148702238</v>
       </c>
       <c r="D463">
         <v>342680.2633781012</v>
       </c>
       <c r="E463">
-        <v>349754.8977735817</v>
+        <v>349754.8977735818</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8245,13 +8245,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C464">
-        <v>371717.4148702236</v>
+        <v>371717.4148702238</v>
       </c>
       <c r="D464">
         <v>342680.2633781012</v>
       </c>
       <c r="E464">
-        <v>349754.8977735817</v>
+        <v>349754.8977735818</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8259,13 +8259,13 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>596890.6440522893</v>
+        <v>596890.6440522892</v>
       </c>
       <c r="C465">
-        <v>498097.2065947562</v>
+        <v>498097.2065947563</v>
       </c>
       <c r="D465">
-        <v>392811.9325131612</v>
+        <v>392811.9325131613</v>
       </c>
       <c r="E465">
         <v>302645.4495644341</v>
@@ -8276,13 +8276,13 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>461879.665040462</v>
+        <v>461879.6650404619</v>
       </c>
       <c r="C466">
-        <v>448287.4859352806</v>
+        <v>448287.4859352807</v>
       </c>
       <c r="D466">
-        <v>419443.2499716805</v>
+        <v>419443.2499716806</v>
       </c>
       <c r="E466">
         <v>412112.9525983784</v>
@@ -8296,13 +8296,13 @@
         <v>374112.9678694228</v>
       </c>
       <c r="C467">
-        <v>371717.4148702236</v>
+        <v>371717.4148702238</v>
       </c>
       <c r="D467">
         <v>342680.2633781012</v>
       </c>
       <c r="E467">
-        <v>349754.8977735817</v>
+        <v>349754.8977735818</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8316,7 +8316,7 @@
         <v>285320.6699963174</v>
       </c>
       <c r="D468">
-        <v>329540.0180364263</v>
+        <v>329540.0180364264</v>
       </c>
       <c r="E468">
         <v>456320.5862785607</v>
@@ -8333,7 +8333,7 @@
         <v>338818.2956206269</v>
       </c>
       <c r="D469">
-        <v>294851.5950852236</v>
+        <v>294851.5950852237</v>
       </c>
       <c r="E469">
         <v>285200.3664241005</v>
@@ -8350,7 +8350,7 @@
         <v>338818.2956206269</v>
       </c>
       <c r="D470">
-        <v>294851.5950852236</v>
+        <v>294851.5950852237</v>
       </c>
       <c r="E470">
         <v>285200.3664241005</v>
@@ -8364,7 +8364,7 @@
         <v>483609.4462702295</v>
       </c>
       <c r="C471">
-        <v>407982.5285160991</v>
+        <v>407982.5285160993</v>
       </c>
       <c r="D471">
         <v>325546.2502091962</v>
@@ -8378,16 +8378,16 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>564762.1707382913</v>
+        <v>564762.1707382915</v>
       </c>
       <c r="C472">
-        <v>494440.5444032354</v>
+        <v>494440.5444032356</v>
       </c>
       <c r="D472">
-        <v>383702.1862124149</v>
+        <v>383702.186212415</v>
       </c>
       <c r="E472">
-        <v>272455.0061163316</v>
+        <v>272455.0061163313</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8395,13 +8395,13 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>596890.6440522893</v>
+        <v>596890.6440522892</v>
       </c>
       <c r="C473">
-        <v>505212.8809746813</v>
+        <v>505212.8809746815</v>
       </c>
       <c r="D473">
-        <v>392811.9325131612</v>
+        <v>392811.9325131613</v>
       </c>
       <c r="E473">
         <v>296206.1846800845</v>
@@ -8412,13 +8412,13 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>596890.6440522893</v>
+        <v>596890.6440522892</v>
       </c>
       <c r="C474">
-        <v>505212.8809746813</v>
+        <v>505212.8809746815</v>
       </c>
       <c r="D474">
-        <v>392811.9325131612</v>
+        <v>392811.9325131613</v>
       </c>
       <c r="E474">
         <v>296206.1846800845</v>
@@ -8435,10 +8435,10 @@
         <v>152440.6745768281</v>
       </c>
       <c r="D475">
-        <v>121389.5069728773</v>
+        <v>121389.5069728772</v>
       </c>
       <c r="E475">
-        <v>89841.2778227777</v>
+        <v>89841.27782277772</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8446,7 +8446,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>291803.0245964927</v>
+        <v>291803.0245964928</v>
       </c>
       <c r="C476">
         <v>247466.3076335344</v>
@@ -8463,7 +8463,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>285723.7949173991</v>
+        <v>285723.7949173992</v>
       </c>
       <c r="C477">
         <v>241430.5440327165</v>
@@ -8500,10 +8500,10 @@
         <v>3768584.871467476</v>
       </c>
       <c r="C479">
-        <v>3425949.179592788</v>
+        <v>3425949.179592787</v>
       </c>
       <c r="D479">
-        <v>2848595.943453111</v>
+        <v>2848595.943453112</v>
       </c>
       <c r="E479">
         <v>2209152.903860165</v>
@@ -8616,7 +8616,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>1740653.452122203</v>
+        <v>1740653.452122204</v>
       </c>
       <c r="C486">
         <v>1918583.160506702</v>
@@ -8633,7 +8633,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>588816.6118721036</v>
+        <v>588816.6118721038</v>
       </c>
       <c r="C487">
         <v>535016.8775277311</v>
@@ -8670,13 +8670,13 @@
         <v>194122.2237196125</v>
       </c>
       <c r="C489">
-        <v>174587.628526644</v>
+        <v>174587.6285266441</v>
       </c>
       <c r="D489">
         <v>140946.1737524292</v>
       </c>
       <c r="E489">
-        <v>115460.4884810294</v>
+        <v>115460.4884810293</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8687,13 +8687,13 @@
         <v>1737669.872093508</v>
       </c>
       <c r="C490">
-        <v>1690456.374941158</v>
+        <v>1690456.374941157</v>
       </c>
       <c r="D490">
-        <v>1519478.555775388</v>
+        <v>1519478.555775389</v>
       </c>
       <c r="E490">
-        <v>1365257.400347365</v>
+        <v>1365257.400347366</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8704,13 +8704,13 @@
         <v>1995739.655077693</v>
       </c>
       <c r="C491">
-        <v>1752087.596944221</v>
+        <v>1752087.59694422</v>
       </c>
       <c r="D491">
         <v>1452319.282591946</v>
       </c>
       <c r="E491">
-        <v>1185403.132038131</v>
+        <v>1185403.132038132</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8721,13 +8721,13 @@
         <v>1737669.872093508</v>
       </c>
       <c r="C492">
-        <v>1690456.374941158</v>
+        <v>1690456.374941157</v>
       </c>
       <c r="D492">
-        <v>1519478.555775388</v>
+        <v>1519478.555775389</v>
       </c>
       <c r="E492">
-        <v>1365257.400347365</v>
+        <v>1365257.400347366</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8738,13 +8738,13 @@
         <v>1737669.872093508</v>
       </c>
       <c r="C493">
-        <v>1690456.374941158</v>
+        <v>1690456.374941157</v>
       </c>
       <c r="D493">
-        <v>1519478.555775388</v>
+        <v>1519478.555775389</v>
       </c>
       <c r="E493">
-        <v>1365257.400347365</v>
+        <v>1365257.400347366</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8755,13 +8755,13 @@
         <v>1737669.872093508</v>
       </c>
       <c r="C494">
-        <v>1690456.374941158</v>
+        <v>1690456.374941157</v>
       </c>
       <c r="D494">
-        <v>1519478.555775388</v>
+        <v>1519478.555775389</v>
       </c>
       <c r="E494">
-        <v>1365257.400347365</v>
+        <v>1365257.400347366</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8772,13 +8772,13 @@
         <v>299958.9355085205</v>
       </c>
       <c r="C495">
-        <v>266958.6791749374</v>
+        <v>266958.6791749373</v>
       </c>
       <c r="D495">
         <v>225495.0820333496</v>
       </c>
       <c r="E495">
-        <v>180184.4952479491</v>
+        <v>180184.4952479492</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8786,7 +8786,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>2138615.197011111</v>
+        <v>2138615.19701111</v>
       </c>
       <c r="C496">
         <v>1879906.336012732</v>
@@ -8806,13 +8806,13 @@
         <v>299958.9355085205</v>
       </c>
       <c r="C497">
-        <v>266958.6791749374</v>
+        <v>266958.6791749373</v>
       </c>
       <c r="D497">
         <v>225495.0820333496</v>
       </c>
       <c r="E497">
-        <v>180184.4952479491</v>
+        <v>180184.4952479492</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8820,10 +8820,10 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>765233.6053980731</v>
+        <v>765233.605398073</v>
       </c>
       <c r="C498">
-        <v>710460.2979810368</v>
+        <v>710460.2979810367</v>
       </c>
       <c r="D498">
         <v>624407.5060895652</v>
@@ -8837,10 +8837,10 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>901508.0830717025</v>
+        <v>901508.0830717024</v>
       </c>
       <c r="C499">
-        <v>752252.0802152155</v>
+        <v>752252.0802152153</v>
       </c>
       <c r="D499">
         <v>594194.2396658765</v>
@@ -8854,10 +8854,10 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>911990.7352004432</v>
+        <v>911990.7352004431</v>
       </c>
       <c r="C500">
-        <v>752252.0802152155</v>
+        <v>752252.0802152153</v>
       </c>
       <c r="D500">
         <v>594194.2396658765</v>
@@ -8871,16 +8871,16 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>285082.012793131</v>
+        <v>285082.0127931311</v>
       </c>
       <c r="C501">
-        <v>298004.4355134551</v>
+        <v>298004.4355134552</v>
       </c>
       <c r="D501">
-        <v>309064.3332762142</v>
+        <v>309064.3332762143</v>
       </c>
       <c r="E501">
-        <v>339769.4058955351</v>
+        <v>339769.405895535</v>
       </c>
     </row>
   </sheetData>
